--- a/modulo3.xlsx
+++ b/modulo3.xlsx
@@ -5,19 +5,18 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lujan\Desktop\PYTHON\normativa\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NievesFonseca\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:2001_{9536E2AC-C3A7-4E7B-B12D-C6BA62DA8930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62DDC5AA-686C-4837-AE85-6118F9A4CA6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{86F0F3AD-BC5F-4CA2-B410-DB00E041E63B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{86F0F3AD-BC5F-4CA2-B410-DB00E041E63B}"/>
   </bookViews>
   <sheets>
     <sheet name="Normativa" sheetId="1" r:id="rId1"/>
     <sheet name="Relaciones" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -46,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1317" uniqueCount="800">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="794">
   <si>
     <t>ID</t>
   </si>
@@ -300,18 +299,6 @@
     <t>europa.eu/ai-strategy</t>
   </si>
   <si>
-    <t>AI &amp; Data Act</t>
-  </si>
-  <si>
-    <t>Ley de IA y Datos (propuesta conjunta)</t>
-  </si>
-  <si>
-    <t>IA y Datos</t>
-  </si>
-  <si>
-    <t>europa.eu/ai-data-act</t>
-  </si>
-  <si>
     <t>DGA</t>
   </si>
   <si>
@@ -609,12 +596,6 @@
     <t>europa.eu/berec</t>
   </si>
   <si>
-    <t>Reglamento del Espectro Radioeléctrico</t>
-  </si>
-  <si>
-    <t>Reglamento sobre espectro radioeléctrico</t>
-  </si>
-  <si>
     <t>Espectro Radio</t>
   </si>
   <si>
@@ -624,9 +605,6 @@
     <t>WiFi4EU</t>
   </si>
   <si>
-    <t>Reglamento sobre la promoción de la conectividad a internet</t>
-  </si>
-  <si>
     <t>WiFi Público</t>
   </si>
   <si>
@@ -636,9 +614,6 @@
     <t>Marco para 5G</t>
   </si>
   <si>
-    <t>Reglamento sobre implantación de redes 5G</t>
-  </si>
-  <si>
     <t>5G</t>
   </si>
   <si>
@@ -750,9 +725,6 @@
     <t>europa.eu/platform-work</t>
   </si>
   <si>
-    <t>Regulación de los Servicios de Intermediación en Línea</t>
-  </si>
-  <si>
     <t>Reglamento sobre promoción de la equidad y transparencia</t>
   </si>
   <si>
@@ -1116,9 +1088,6 @@
     <t>europa.eu/e-invoicing</t>
   </si>
   <si>
-    <t>Company Law Digitalisation</t>
-  </si>
-  <si>
     <t>Digitalización de procesos societarios</t>
   </si>
   <si>
@@ -1164,15 +1133,6 @@
     <t>europa.eu/counterfeiting</t>
   </si>
   <si>
-    <t>Euro Coin Regulation</t>
-  </si>
-  <si>
-    <t>Producción digital de monedas físicas</t>
-  </si>
-  <si>
-    <t>europa.eu/euro-coin</t>
-  </si>
-  <si>
     <t>Bloque Temático</t>
   </si>
   <si>
@@ -1239,9 +1199,6 @@
     <t>Marco estratégico para IA</t>
   </si>
   <si>
-    <t>Integración de IA y datos</t>
-  </si>
-  <si>
     <t>Datos e Información</t>
   </si>
   <si>
@@ -1503,9 +1460,6 @@
     <t>Protección del euro digital</t>
   </si>
   <si>
-    <t>Producción digital de monedas</t>
-  </si>
-  <si>
     <t>ID_Normativa_1</t>
   </si>
   <si>
@@ -1576,9 +1530,6 @@
   </si>
   <si>
     <t>Plan de inversión de €20.000M hasta 2030 para liderar IA ética. Prioridades: salud (diagnóstico temprano), clima (modelos predictivos) y agricultura (optimización recursos).</t>
-  </si>
-  <si>
-    <t>Permite el uso de datos industriales (IoT, sensores) para entrenar modelos de IA, garantizando compensación justa a generadores de datos. Prohíbe "cerraduras de datos" en contratos B2B.</t>
   </si>
   <si>
     <t>Crea "intermediarios de datos" neutrales para facilitar el intercambio empresarial bajo estándares éticos. Prioriza 9 sectores: salud, movilidad, medioambiente.</t>
@@ -1890,9 +1841,6 @@
     <t>Introduce hologramas y chips RFID en monedas de €1 y €2. Base de datos europea de falsificaciones detectadas.</t>
   </si>
   <si>
-    <t>Especificaciones técnicas para producción de euros físicos: aleación, peso, tolerancia a temperatura. Prohíbe acuñación privada</t>
-  </si>
-  <si>
     <t>Descripcion</t>
   </si>
   <si>
@@ -2524,6 +2472,39 @@
   </si>
   <si>
     <t>GDPR</t>
+  </si>
+  <si>
+    <t>Derogado</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Espectro Radioeléctrico</t>
+  </si>
+  <si>
+    <t>Decisión espectro radioeléctrico</t>
+  </si>
+  <si>
+    <t>Iniciativa para promoción de la conectividad a internet</t>
+  </si>
+  <si>
+    <t>Marco implantación de redes 5G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regulación de Equidad y transparencia </t>
+  </si>
+  <si>
+    <t>Aprobada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Digitalization Act </t>
+  </si>
+  <si>
+    <t>Gigabit Act</t>
+  </si>
+  <si>
+    <t>Ley de Infraestructuras Gigabit</t>
+  </si>
+  <si>
+    <t>Reglamento</t>
   </si>
 </sst>
 </file>
@@ -2637,7 +2618,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2654,7 +2635,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2970,15 +2951,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DF036EE-C599-40BA-A51B-A65269641301}">
-  <dimension ref="A1:K100"/>
+  <dimension ref="A1:K99"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
+      <selection activeCell="I100" sqref="I100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="34.5" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2986,7 +2967,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>589</v>
+        <v>572</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>2</v>
@@ -3004,21 +2985,21 @@
         <v>6</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>375</v>
+        <v>362</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>376</v>
+        <v>363</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="402.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>799</v>
+        <v>782</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -3042,13 +3023,13 @@
         <v>8</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>377</v>
+        <v>364</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="336" x14ac:dyDescent="0.25">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="310.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -3077,13 +3058,13 @@
         <v>8</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>378</v>
+        <v>365</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="304.5" x14ac:dyDescent="0.25">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="299" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -3097,7 +3078,7 @@
         <v>14</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>590</v>
+        <v>573</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>20</v>
@@ -3112,13 +3093,13 @@
         <v>8</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>378</v>
+        <v>365</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="241.5" x14ac:dyDescent="0.25">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="230" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -3147,13 +3128,13 @@
         <v>8</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>379</v>
+        <v>366</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="252" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="230" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -3182,13 +3163,13 @@
         <v>8</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="357" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="333.5" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -3214,16 +3195,16 @@
         <v>31</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>381</v>
+        <v>368</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>382</v>
+        <v>369</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="304.5" x14ac:dyDescent="0.25">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="287.5" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -3249,16 +3230,16 @@
         <v>35</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>381</v>
+        <v>368</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="262.5" x14ac:dyDescent="0.25">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="253" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -3284,16 +3265,16 @@
         <v>39</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>381</v>
+        <v>368</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>384</v>
+        <v>371</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="220.5" x14ac:dyDescent="0.25">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="207" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -3319,16 +3300,16 @@
         <v>43</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>381</v>
+        <v>368</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>385</v>
+        <v>372</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="283.5" x14ac:dyDescent="0.25">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="276" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -3354,16 +3335,16 @@
         <v>46</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>381</v>
+        <v>368</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="210" x14ac:dyDescent="0.25">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="172.5" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -3389,16 +3370,16 @@
         <v>50</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>381</v>
+        <v>368</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="252" x14ac:dyDescent="0.25">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="230" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -3424,16 +3405,16 @@
         <v>54</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>381</v>
+        <v>368</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>388</v>
+        <v>375</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="220.5" x14ac:dyDescent="0.25">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="207" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -3447,7 +3428,7 @@
         <v>57</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>591</v>
+        <v>574</v>
       </c>
       <c r="F14" s="2">
         <v>42590</v>
@@ -3462,13 +3443,13 @@
         <v>57</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="231" x14ac:dyDescent="0.25">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="195.5" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -3497,13 +3478,13 @@
         <v>57</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>390</v>
+        <v>377</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="199.5" x14ac:dyDescent="0.25">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="195.5" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -3532,13 +3513,13 @@
         <v>57</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>391</v>
+        <v>378</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="231" x14ac:dyDescent="0.25">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="207" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -3567,13 +3548,13 @@
         <v>57</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="189" x14ac:dyDescent="0.25">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="172.5" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -3602,13 +3583,13 @@
         <v>57</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>393</v>
+        <v>380</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="325.5" x14ac:dyDescent="0.25">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="322" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -3637,13 +3618,13 @@
         <v>75</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>394</v>
+        <v>381</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="252" x14ac:dyDescent="0.25">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="230" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -3657,7 +3638,7 @@
         <v>79</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>590</v>
+        <v>573</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>20</v>
@@ -3672,13 +3653,13 @@
         <v>75</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>395</v>
+        <v>382</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="220.5" x14ac:dyDescent="0.25">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="184" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -3707,15 +3688,15 @@
         <v>75</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="241.5" x14ac:dyDescent="0.25">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="195.5" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>84</v>
@@ -3727,10 +3708,10 @@
         <v>86</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>20</v>
+        <v>9</v>
+      </c>
+      <c r="F22" s="2">
+        <v>44735</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>10</v>
@@ -3739,18 +3720,18 @@
         <v>87</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>75</v>
+        <v>384</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="199.5" x14ac:dyDescent="0.25">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="230" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>88</v>
@@ -3765,7 +3746,7 @@
         <v>9</v>
       </c>
       <c r="F23" s="2">
-        <v>44735</v>
+        <v>45118</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>10</v>
@@ -3774,18 +3755,18 @@
         <v>91</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>398</v>
+        <v>384</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="231" x14ac:dyDescent="0.25">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="184" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>92</v>
@@ -3800,27 +3781,27 @@
         <v>9</v>
       </c>
       <c r="F24" s="2">
-        <v>45118</v>
+        <v>43662</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>95</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>398</v>
+        <v>384</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="189" x14ac:dyDescent="0.25">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="184" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>96</v>
@@ -3835,7 +3816,7 @@
         <v>9</v>
       </c>
       <c r="F25" s="2">
-        <v>43662</v>
+        <v>39217</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>15</v>
@@ -3844,18 +3825,18 @@
         <v>99</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>398</v>
+        <v>384</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>401</v>
+        <v>388</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="178.5" x14ac:dyDescent="0.25">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="138" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>100</v>
@@ -3870,42 +3851,42 @@
         <v>9</v>
       </c>
       <c r="F26" s="2">
-        <v>39217</v>
+        <v>42444</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>15</v>
+        <v>103</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>398</v>
+        <v>384</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>402</v>
+        <v>389</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="157.5" x14ac:dyDescent="0.25">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="161" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F27" s="2">
-        <v>42444</v>
+        <v>43427</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>107</v>
@@ -3914,18 +3895,18 @@
         <v>108</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>398</v>
+        <v>384</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>403</v>
+        <v>390</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="210" x14ac:dyDescent="0.25">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="161" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>109</v>
@@ -3934,13 +3915,13 @@
         <v>110</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F28" s="2">
-        <v>43427</v>
+        <v>45098</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>111</v>
@@ -3949,18 +3930,18 @@
         <v>112</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>398</v>
+        <v>384</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>404</v>
+        <v>391</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="168" x14ac:dyDescent="0.25">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="161" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>113</v>
@@ -3969,33 +3950,33 @@
         <v>114</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F29" s="2">
-        <v>45098</v>
+        <v>41899</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>115</v>
+        <v>10</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>116</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="199.5" x14ac:dyDescent="0.25">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="184" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>117</v>
@@ -4004,138 +3985,138 @@
         <v>118</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F30" s="2">
-        <v>41899</v>
+        <v>45106</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H30" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="195.5" x14ac:dyDescent="0.35">
+      <c r="A31" s="1">
+        <v>31</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="I30" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="J30" s="4" t="s">
-        <v>407</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="199.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>30</v>
-      </c>
-      <c r="B31" s="1" t="s">
+      <c r="C31" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="D31" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="E31" s="1" t="s">
+      <c r="F31" s="2">
+        <v>45330</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="138" x14ac:dyDescent="0.35">
+      <c r="A32" s="1">
+        <v>32</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F32" s="2">
+        <v>45015</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="207" x14ac:dyDescent="0.35">
+      <c r="A33" s="1">
+        <v>33</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F31" s="2">
-        <v>45106</v>
-      </c>
-      <c r="G31" s="1" t="s">
+      <c r="F33" s="2">
+        <v>45483</v>
+      </c>
+      <c r="G33" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="I31" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="J31" s="4" t="s">
-        <v>408</v>
-      </c>
-      <c r="K31" s="1" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="231" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
-        <v>31</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="F32" s="2">
-        <v>45330</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="I32" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="J32" s="4" t="s">
-        <v>409</v>
-      </c>
-      <c r="K32" s="1" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" ht="157.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
-        <v>32</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="F33" s="2">
-        <v>45015</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>131</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" ht="241.5" x14ac:dyDescent="0.25">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="184" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>132</v>
@@ -4150,27 +4131,27 @@
         <v>9</v>
       </c>
       <c r="F34" s="2">
-        <v>45483</v>
+        <v>42534</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H34" s="3" t="s">
         <v>135</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" ht="210" x14ac:dyDescent="0.25">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="172.5" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>136</v>
@@ -4181,11 +4162,11 @@
       <c r="D35" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="E35" s="1" t="s">
-        <v>9</v>
+      <c r="E35" s="7" t="s">
+        <v>783</v>
       </c>
       <c r="F35" s="2">
-        <v>42534</v>
+        <v>38001</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>15</v>
@@ -4194,18 +4175,18 @@
         <v>139</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" ht="199.5" x14ac:dyDescent="0.25">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="149.5" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>140</v>
@@ -4214,103 +4195,103 @@
         <v>141</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F36" s="2">
-        <v>38001</v>
+        <v>45304</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H36" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="172.5" x14ac:dyDescent="0.35">
+      <c r="A37" s="1">
+        <v>37</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="I36" s="4" t="s">
-        <v>411</v>
-      </c>
-      <c r="J36" s="4" t="s">
-        <v>414</v>
-      </c>
-      <c r="K36" s="1" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" ht="189" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
-        <v>36</v>
-      </c>
-      <c r="B37" s="1" t="s">
+      <c r="C37" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>145</v>
-      </c>
       <c r="D37" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F37" s="2">
-        <v>45304</v>
+        <v>45125</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H37" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="172.5" x14ac:dyDescent="0.35">
+      <c r="A38" s="1">
+        <v>38</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="I37" s="4" t="s">
-        <v>411</v>
-      </c>
-      <c r="J37" s="4" t="s">
-        <v>415</v>
-      </c>
-      <c r="K37" s="1" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" ht="199.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
-        <v>37</v>
-      </c>
-      <c r="B38" s="1" t="s">
+      <c r="C38" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="D38" s="1" t="s">
         <v>148</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>142</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F38" s="2">
-        <v>45125</v>
+        <v>43623</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H38" s="3" t="s">
         <v>149</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" ht="199.5" x14ac:dyDescent="0.25">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="172.5" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>150</v>
@@ -4325,7 +4306,7 @@
         <v>9</v>
       </c>
       <c r="F39" s="2">
-        <v>43623</v>
+        <v>43622</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>15</v>
@@ -4334,18 +4315,18 @@
         <v>153</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>417</v>
+        <v>403</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>418</v>
+        <v>405</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" ht="178.5" x14ac:dyDescent="0.25">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="172.5" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>154</v>
@@ -4360,7 +4341,7 @@
         <v>9</v>
       </c>
       <c r="F40" s="2">
-        <v>43622</v>
+        <v>43452</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>15</v>
@@ -4369,18 +4350,18 @@
         <v>157</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>417</v>
+        <v>403</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" ht="168" x14ac:dyDescent="0.25">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="149.5" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>158</v>
@@ -4389,103 +4370,103 @@
         <v>159</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F41" s="2">
-        <v>43452</v>
+        <v>41207</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H41" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="I41" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="J41" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="149.5" x14ac:dyDescent="0.35">
+      <c r="A42" s="1">
+        <v>42</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="I41" s="4" t="s">
-        <v>417</v>
-      </c>
-      <c r="J41" s="4" t="s">
-        <v>420</v>
-      </c>
-      <c r="K41" s="1" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" ht="147" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
-        <v>41</v>
-      </c>
-      <c r="B42" s="1" t="s">
+      <c r="C42" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="C42" s="1" t="s">
-        <v>163</v>
-      </c>
       <c r="D42" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F42" s="2">
-        <v>41207</v>
+        <v>35151</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H42" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="I42" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="J42" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="149.5" x14ac:dyDescent="0.35">
+      <c r="A43" s="1">
+        <v>43</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="I42" s="4" t="s">
-        <v>417</v>
-      </c>
-      <c r="J42" s="4" t="s">
-        <v>421</v>
-      </c>
-      <c r="K42" s="1" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" ht="157.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
-        <v>42</v>
-      </c>
-      <c r="B43" s="1" t="s">
+      <c r="C43" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="D43" s="1" t="s">
         <v>166</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>152</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F43" s="2">
-        <v>35151</v>
+        <v>42900</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>167</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>417</v>
+        <v>403</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>422</v>
+        <v>409</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" ht="157.5" x14ac:dyDescent="0.25">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="149.5" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>168</v>
@@ -4494,48 +4475,48 @@
         <v>169</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F44" s="2">
-        <v>42900</v>
+        <v>43020</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H44" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="I44" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="J44" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="161" x14ac:dyDescent="0.35">
+      <c r="A45" s="1">
+        <v>45</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="I44" s="4" t="s">
-        <v>417</v>
-      </c>
-      <c r="J44" s="4" t="s">
-        <v>423</v>
-      </c>
-      <c r="K44" s="1" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" ht="157.5" x14ac:dyDescent="0.25">
-      <c r="A45" s="1">
-        <v>44</v>
-      </c>
-      <c r="B45" s="1" t="s">
+      <c r="C45" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="D45" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>152</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F45" s="2">
-        <v>43020</v>
+        <v>43454</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>15</v>
@@ -4544,18 +4525,18 @@
         <v>174</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>417</v>
+        <v>173</v>
       </c>
       <c r="J45" s="4" t="s">
-        <v>424</v>
+        <v>172</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" ht="189" x14ac:dyDescent="0.25">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="172.5" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>175</v>
@@ -4570,27 +4551,27 @@
         <v>9</v>
       </c>
       <c r="F46" s="2">
-        <v>43454</v>
+        <v>44664</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>178</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="J46" s="4" t="s">
-        <v>176</v>
+        <v>411</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" ht="168" x14ac:dyDescent="0.25">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="195.5" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>179</v>
@@ -4605,7 +4586,7 @@
         <v>9</v>
       </c>
       <c r="F47" s="2">
-        <v>44664</v>
+        <v>43454</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>10</v>
@@ -4614,762 +4595,762 @@
         <v>182</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="J47" s="4" t="s">
-        <v>425</v>
+        <v>412</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" ht="210" x14ac:dyDescent="0.25">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="149.5" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
-        <v>47</v>
-      </c>
-      <c r="B48" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>784</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>785</v>
+      </c>
+      <c r="D48" s="1" t="s">
         <v>183</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>185</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F48" s="2">
-        <v>43454</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>10</v>
+        <v>42880</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>267</v>
       </c>
       <c r="H48" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="I48" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="J48" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="149.5" x14ac:dyDescent="0.35">
+      <c r="A49" s="1">
+        <v>49</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>786</v>
+      </c>
+      <c r="D49" s="1" t="s">
         <v>186</v>
-      </c>
-      <c r="I48" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="J48" s="4" t="s">
-        <v>426</v>
-      </c>
-      <c r="K48" s="1" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" ht="168" x14ac:dyDescent="0.25">
-      <c r="A49" s="1">
-        <v>48</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>189</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F49" s="2">
-        <v>42880</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>10</v>
+        <v>43033</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>107</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="J49" s="4" t="s">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" ht="168" x14ac:dyDescent="0.25">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="161" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>787</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F50" s="2">
-        <v>43033</v>
+        <v>43920</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>10</v>
+        <v>190</v>
       </c>
       <c r="H50" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="I50" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="J50" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="161" x14ac:dyDescent="0.35">
+      <c r="A51" s="1">
+        <v>51</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D51" s="1" t="s">
         <v>194</v>
-      </c>
-      <c r="I50" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="J50" s="4" t="s">
-        <v>428</v>
-      </c>
-      <c r="K50" s="1" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" ht="189" x14ac:dyDescent="0.25">
-      <c r="A51" s="1">
-        <v>50</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>197</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F51" s="2">
-        <v>43920</v>
+        <v>41835</v>
       </c>
       <c r="G51" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="I51" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="J51" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="184" x14ac:dyDescent="0.35">
+      <c r="A52" s="1">
+        <v>52</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D52" s="1" t="s">
         <v>198</v>
-      </c>
-      <c r="H51" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="I51" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="J51" s="4" t="s">
-        <v>429</v>
-      </c>
-      <c r="K51" s="1" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" ht="157.5" x14ac:dyDescent="0.25">
-      <c r="A52" s="1">
-        <v>51</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>202</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F52" s="2">
-        <v>41835</v>
+        <v>43113</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="I52" s="4" t="s">
-        <v>177</v>
+        <v>417</v>
       </c>
       <c r="J52" s="4" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" ht="199.5" x14ac:dyDescent="0.25">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="230" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F53" s="2">
-        <v>43113</v>
+        <v>45107</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>431</v>
+        <v>417</v>
       </c>
       <c r="J53" s="4" t="s">
-        <v>432</v>
+        <v>419</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" ht="241.5" x14ac:dyDescent="0.25">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="184" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F54" s="2">
-        <v>45107</v>
+        <v>44713</v>
       </c>
       <c r="G54" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>431</v>
+        <v>417</v>
       </c>
       <c r="J54" s="4" t="s">
-        <v>433</v>
+        <v>420</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" ht="189" x14ac:dyDescent="0.25">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="172.5" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F55" s="2">
-        <v>44713</v>
+        <v>40998</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="I55" s="4" t="s">
-        <v>431</v>
+        <v>417</v>
       </c>
       <c r="J55" s="4" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" ht="189" x14ac:dyDescent="0.25">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="149.5" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F56" s="2">
-        <v>40998</v>
+        <v>19</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="G56" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H56" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="I56" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="J56" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" ht="138" x14ac:dyDescent="0.35">
+      <c r="A57" s="1">
+        <v>57</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F57" s="2">
+        <v>42255</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="I57" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="J57" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="172.5" x14ac:dyDescent="0.35">
+      <c r="A58" s="1">
+        <v>58</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="I56" s="4" t="s">
-        <v>431</v>
-      </c>
-      <c r="J56" s="4" t="s">
-        <v>435</v>
-      </c>
-      <c r="K56" s="1" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" ht="168" x14ac:dyDescent="0.25">
-      <c r="A57" s="1">
-        <v>56</v>
-      </c>
-      <c r="B57" s="1" t="s">
+      <c r="C58" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="C57" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="I57" s="4" t="s">
-        <v>431</v>
-      </c>
-      <c r="J57" s="4" t="s">
-        <v>436</v>
-      </c>
-      <c r="K57" s="1" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" ht="147" x14ac:dyDescent="0.25">
-      <c r="A58" s="1">
-        <v>57</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>224</v>
-      </c>
       <c r="D58" s="1" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F58" s="2">
-        <v>42255</v>
+        <v>45287</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>115</v>
+        <v>10</v>
       </c>
       <c r="H58" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="I58" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="J58" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" ht="149.5" x14ac:dyDescent="0.35">
+      <c r="A59" s="1">
+        <v>59</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="I59" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="J59" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" ht="126.5" x14ac:dyDescent="0.35">
+      <c r="A60" s="1">
+        <v>60</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>788</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="I58" s="4" t="s">
-        <v>431</v>
-      </c>
-      <c r="J58" s="4" t="s">
-        <v>437</v>
-      </c>
-      <c r="K58" s="1" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" ht="168" x14ac:dyDescent="0.25">
-      <c r="A59" s="1">
-        <v>58</v>
-      </c>
-      <c r="B59" s="1" t="s">
+      <c r="D60" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F60" s="2">
+        <v>44024</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H60" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="I60" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="J60" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="149.5" x14ac:dyDescent="0.35">
+      <c r="A61" s="1">
+        <v>61</v>
+      </c>
+      <c r="B61" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="D59" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F59" s="2">
-        <v>45287</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H59" s="3" t="s">
+      <c r="C61" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="I59" s="4" t="s">
-        <v>431</v>
-      </c>
-      <c r="J59" s="4" t="s">
-        <v>438</v>
-      </c>
-      <c r="K59" s="1" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" ht="168" x14ac:dyDescent="0.25">
-      <c r="A60" s="1">
-        <v>59</v>
-      </c>
-      <c r="B60" s="1" t="s">
+      <c r="D61" s="1" t="s">
         <v>230</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="I60" s="4" t="s">
-        <v>439</v>
-      </c>
-      <c r="J60" s="4" t="s">
-        <v>440</v>
-      </c>
-      <c r="K60" s="1" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" ht="136.5" x14ac:dyDescent="0.25">
-      <c r="A61" s="1">
-        <v>60</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F61" s="2">
-        <v>44024</v>
+        <v>44106</v>
       </c>
       <c r="G61" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="I61" s="4" t="s">
-        <v>439</v>
+        <v>425</v>
       </c>
       <c r="J61" s="4" t="s">
-        <v>441</v>
+        <v>428</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" ht="157.5" x14ac:dyDescent="0.25">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="149.5" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F62" s="2">
-        <v>44106</v>
-      </c>
-      <c r="G62" s="1" t="s">
+        <v>45125</v>
+      </c>
+      <c r="G62" s="7" t="s">
         <v>10</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="I62" s="4" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="J62" s="4" t="s">
-        <v>442</v>
+        <v>430</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" ht="136.5" x14ac:dyDescent="0.25">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" ht="161" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F63" s="2">
-        <v>45125</v>
+        <v>238</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>789</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>239</v>
       </c>
       <c r="G63" s="7" t="s">
         <v>10</v>
       </c>
       <c r="H63" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="I63" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="J63" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="K63" s="1" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" ht="126.5" x14ac:dyDescent="0.35">
+      <c r="A64" s="1">
+        <v>64</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F64" s="2">
+        <v>45190</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H64" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="I64" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="J64" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="K64" s="1" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" ht="161" x14ac:dyDescent="0.35">
+      <c r="A65" s="1">
+        <v>65</v>
+      </c>
+      <c r="B65" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="I63" s="4" t="s">
-        <v>443</v>
-      </c>
-      <c r="J63" s="4" t="s">
-        <v>444</v>
-      </c>
-      <c r="K63" s="1" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" ht="157.5" x14ac:dyDescent="0.25">
-      <c r="A64" s="1">
-        <v>63</v>
-      </c>
-      <c r="B64" s="1" t="s">
+      <c r="C65" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="D65" s="1" t="s">
         <v>246</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="G64" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H64" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="I64" s="4" t="s">
-        <v>445</v>
-      </c>
-      <c r="J64" s="4" t="s">
-        <v>446</v>
-      </c>
-      <c r="K64" s="1" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" ht="157.5" x14ac:dyDescent="0.25">
-      <c r="A65" s="1">
-        <v>64</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>251</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F65" s="2">
-        <v>45190</v>
+        <v>45307</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="I65" s="4" t="s">
-        <v>447</v>
+        <v>433</v>
       </c>
       <c r="J65" s="4" t="s">
-        <v>448</v>
+        <v>435</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" ht="168" x14ac:dyDescent="0.25">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" ht="172.5" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>255</v>
+        <v>49</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F66" s="2">
-        <v>45307</v>
+        <v>44709</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="I66" s="4" t="s">
-        <v>447</v>
+        <v>436</v>
       </c>
       <c r="J66" s="4" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" ht="168" x14ac:dyDescent="0.25">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" ht="149.5" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>49</v>
+        <v>253</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F67" s="2">
-        <v>44709</v>
+        <v>44562</v>
       </c>
       <c r="G67" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H67" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="I67" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="J67" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="K67" s="1" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" ht="161" x14ac:dyDescent="0.35">
+      <c r="A68" s="1">
+        <v>68</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H68" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="I68" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="J68" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="K68" s="1" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" ht="184" x14ac:dyDescent="0.35">
+      <c r="A69" s="1">
+        <v>69</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C69" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="I67" s="4" t="s">
-        <v>450</v>
-      </c>
-      <c r="J67" s="4" t="s">
-        <v>451</v>
-      </c>
-      <c r="K67" s="1" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" ht="168" x14ac:dyDescent="0.25">
-      <c r="A68" s="1">
-        <v>67</v>
-      </c>
-      <c r="B68" s="1" t="s">
+      <c r="D69" s="1" t="s">
         <v>260</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F68" s="2">
-        <v>44562</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H68" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="I68" s="4" t="s">
-        <v>450</v>
-      </c>
-      <c r="J68" s="4" t="s">
-        <v>452</v>
-      </c>
-      <c r="K68" s="1" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" ht="178.5" x14ac:dyDescent="0.25">
-      <c r="A69" s="1">
-        <v>68</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>19</v>
@@ -5381,30 +5362,30 @@
         <v>10</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="I69" s="4" t="s">
-        <v>381</v>
+        <v>403</v>
       </c>
       <c r="J69" s="4" t="s">
-        <v>453</v>
+        <v>440</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" ht="168" x14ac:dyDescent="0.25">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" ht="161" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>269</v>
+        <v>198</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>19</v>
@@ -5416,1067 +5397,1024 @@
         <v>10</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="I70" s="4" t="s">
         <v>417</v>
       </c>
       <c r="J70" s="4" t="s">
-        <v>454</v>
+        <v>441</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" ht="157.5" x14ac:dyDescent="0.25">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" ht="172.5" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B71" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F71" s="2">
+        <v>45117</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="H71" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="I71" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J71" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="K71" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" ht="161" x14ac:dyDescent="0.35">
+      <c r="A72" s="1">
+        <v>72</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="D72" s="1" t="s">
         <v>271</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G71" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H71" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="I71" s="4" t="s">
-        <v>431</v>
-      </c>
-      <c r="J71" s="4" t="s">
-        <v>455</v>
-      </c>
-      <c r="K71" s="1" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" ht="178.5" x14ac:dyDescent="0.25">
-      <c r="A72" s="1">
-        <v>71</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F72" s="2">
-        <v>45117</v>
+        <v>43815</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>276</v>
+        <v>15</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="I72" s="4" t="s">
-        <v>8</v>
+        <v>443</v>
       </c>
       <c r="J72" s="4" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="K72" s="1" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" ht="168" x14ac:dyDescent="0.25">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" ht="126.5" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F73" s="2">
-        <v>43815</v>
+        <v>43613</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H73" s="3" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="I73" s="4" t="s">
-        <v>457</v>
+        <v>384</v>
       </c>
       <c r="J73" s="4" t="s">
-        <v>458</v>
+        <v>445</v>
       </c>
       <c r="K73" s="1" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" ht="115.5" x14ac:dyDescent="0.25">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" ht="149.5" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F74" s="2">
-        <v>43613</v>
+        <v>45836</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="I74" s="4" t="s">
-        <v>398</v>
+        <v>431</v>
       </c>
       <c r="J74" s="4" t="s">
-        <v>459</v>
+        <v>446</v>
       </c>
       <c r="K74" s="1" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" ht="147" x14ac:dyDescent="0.25">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" ht="138" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F75" s="2">
-        <v>45836</v>
+        <v>43817</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H75" s="3" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="I75" s="4" t="s">
-        <v>445</v>
+        <v>384</v>
       </c>
       <c r="J75" s="4" t="s">
-        <v>460</v>
+        <v>447</v>
       </c>
       <c r="K75" s="1" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" ht="136.5" x14ac:dyDescent="0.25">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" ht="115" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>284</v>
+        <v>49</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F76" s="2">
-        <v>43817</v>
+        <v>45102</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H76" s="3" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="I76" s="4" t="s">
-        <v>398</v>
+        <v>436</v>
       </c>
       <c r="J76" s="4" t="s">
-        <v>461</v>
+        <v>448</v>
       </c>
       <c r="K76" s="1" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" ht="136.5" x14ac:dyDescent="0.25">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" ht="161" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>49</v>
+        <v>289</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F77" s="2">
-        <v>45102</v>
+        <v>44927</v>
       </c>
       <c r="G77" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H77" s="3" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="I77" s="4" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="J77" s="4" t="s">
-        <v>462</v>
+        <v>449</v>
       </c>
       <c r="K77" s="1" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" ht="168" x14ac:dyDescent="0.25">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" ht="138" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F78" s="2">
-        <v>44927</v>
+        <v>44510</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="I78" s="4" t="s">
-        <v>457</v>
+        <v>417</v>
       </c>
       <c r="J78" s="4" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="K78" s="1" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" ht="147" x14ac:dyDescent="0.25">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" ht="172.5" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F79" s="2">
-        <v>44510</v>
+        <v>19</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="G79" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H79" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="I79" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="J79" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="K79" s="1" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" ht="115" x14ac:dyDescent="0.35">
+      <c r="A80" s="1">
+        <v>80</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F80" s="2">
+        <v>42451</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H80" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="I80" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="J80" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="K80" s="1" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" ht="149.5" x14ac:dyDescent="0.35">
+      <c r="A81" s="1">
+        <v>81</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="C81" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="I79" s="4" t="s">
-        <v>431</v>
-      </c>
-      <c r="J79" s="4" t="s">
-        <v>464</v>
-      </c>
-      <c r="K79" s="1" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" ht="168" x14ac:dyDescent="0.25">
-      <c r="A80" s="1">
-        <v>79</v>
-      </c>
-      <c r="B80" s="1" t="s">
+      <c r="D81" s="1" t="s">
         <v>304</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G80" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H80" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="I80" s="4" t="s">
-        <v>431</v>
-      </c>
-      <c r="J80" s="4" t="s">
-        <v>465</v>
-      </c>
-      <c r="K80" s="1" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" ht="115.5" x14ac:dyDescent="0.25">
-      <c r="A81" s="1">
-        <v>80</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F81" s="2">
-        <v>42451</v>
+        <v>44652</v>
       </c>
       <c r="G81" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H81" s="3" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="I81" s="4" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="J81" s="4" t="s">
-        <v>466</v>
+        <v>453</v>
       </c>
       <c r="K81" s="1" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" ht="157.5" x14ac:dyDescent="0.25">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" ht="126.5" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F82" s="2">
-        <v>44652</v>
+        <v>44551</v>
       </c>
       <c r="G82" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H82" s="3" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="I82" s="4" t="s">
-        <v>445</v>
+        <v>431</v>
       </c>
       <c r="J82" s="4" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" ht="136.5" x14ac:dyDescent="0.25">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" ht="126.5" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F83" s="2">
-        <v>44551</v>
+        <v>41610</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H83" s="3" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="I83" s="4" t="s">
-        <v>445</v>
+        <v>57</v>
       </c>
       <c r="J83" s="4" t="s">
-        <v>468</v>
+        <v>455</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" ht="136.5" x14ac:dyDescent="0.25">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" ht="138" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F84" s="2">
-        <v>41610</v>
+        <v>43811</v>
       </c>
       <c r="G84" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H84" s="3" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="I84" s="4" t="s">
-        <v>57</v>
+        <v>429</v>
       </c>
       <c r="J84" s="4" t="s">
-        <v>469</v>
+        <v>456</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" ht="136.5" x14ac:dyDescent="0.25">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" ht="149.5" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>324</v>
+        <v>234</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F85" s="2">
-        <v>43811</v>
+        <v>44348</v>
       </c>
       <c r="G85" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H85" s="3" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="I85" s="4" t="s">
-        <v>443</v>
+        <v>429</v>
       </c>
       <c r="J85" s="4" t="s">
-        <v>470</v>
+        <v>457</v>
       </c>
       <c r="K85" s="1" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" ht="168" x14ac:dyDescent="0.25">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" ht="115" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>243</v>
+        <v>322</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F86" s="2">
-        <v>44348</v>
+        <v>42324</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H86" s="3" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="I86" s="4" t="s">
-        <v>443</v>
+        <v>429</v>
       </c>
       <c r="J86" s="4" t="s">
-        <v>471</v>
+        <v>458</v>
       </c>
       <c r="K86" s="1" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" ht="126" x14ac:dyDescent="0.25">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" ht="126.5" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F87" s="2">
-        <v>42324</v>
+        <v>42859</v>
       </c>
       <c r="G87" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H87" s="3" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="I87" s="4" t="s">
-        <v>443</v>
+        <v>429</v>
       </c>
       <c r="J87" s="4" t="s">
-        <v>472</v>
+        <v>459</v>
       </c>
       <c r="K87" s="1" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" ht="126" x14ac:dyDescent="0.25">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" ht="149.5" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F88" s="2">
-        <v>42859</v>
+        <v>42912</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H88" s="3" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="I88" s="4" t="s">
-        <v>443</v>
+        <v>429</v>
       </c>
       <c r="J88" s="4" t="s">
-        <v>473</v>
+        <v>460</v>
       </c>
       <c r="K88" s="1" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" ht="136.5" x14ac:dyDescent="0.25">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" ht="138" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>338</v>
+        <v>293</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F89" s="2">
-        <v>42912</v>
+        <v>43101</v>
       </c>
       <c r="G89" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H89" s="3" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="I89" s="4" t="s">
-        <v>443</v>
+        <v>417</v>
       </c>
       <c r="J89" s="4" t="s">
-        <v>474</v>
+        <v>461</v>
       </c>
       <c r="K89" s="1" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" ht="126" x14ac:dyDescent="0.25">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" ht="161" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F90" s="2">
-        <v>43101</v>
+        <v>43103</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H90" s="3" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="I90" s="4" t="s">
-        <v>431</v>
+        <v>417</v>
       </c>
       <c r="J90" s="4" t="s">
-        <v>475</v>
+        <v>462</v>
       </c>
       <c r="K90" s="1" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" ht="168" x14ac:dyDescent="0.25">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" ht="126.5" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>306</v>
+        <v>329</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F91" s="2">
-        <v>43103</v>
+        <v>43101</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H91" s="3" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="I91" s="4" t="s">
-        <v>431</v>
+        <v>417</v>
       </c>
       <c r="J91" s="4" t="s">
-        <v>476</v>
+        <v>463</v>
       </c>
       <c r="K91" s="1" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" ht="136.5" x14ac:dyDescent="0.25">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" ht="149.5" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>338</v>
+        <v>271</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F92" s="2">
-        <v>43101</v>
+        <v>45301</v>
       </c>
       <c r="G92" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H92" s="3" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="I92" s="4" t="s">
-        <v>431</v>
+        <v>384</v>
       </c>
       <c r="J92" s="4" t="s">
-        <v>477</v>
+        <v>464</v>
       </c>
       <c r="K92" s="1" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" ht="157.5" x14ac:dyDescent="0.25">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" ht="115" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>280</v>
+        <v>345</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F93" s="2">
-        <v>45301</v>
+        <v>43573</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H93" s="3" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="I93" s="4" t="s">
-        <v>398</v>
+        <v>431</v>
       </c>
       <c r="J93" s="4" t="s">
-        <v>478</v>
+        <v>465</v>
       </c>
       <c r="K93" s="1" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" ht="147" x14ac:dyDescent="0.25">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" ht="126.5" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
-        <v>93</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>352</v>
+        <v>94</v>
+      </c>
+      <c r="B94" s="7" t="s">
+        <v>790</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F94" s="2">
-        <v>43573</v>
+        <v>45138</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H94" s="3" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="I94" s="4" t="s">
-        <v>445</v>
+        <v>431</v>
       </c>
       <c r="J94" s="4" t="s">
-        <v>479</v>
+        <v>466</v>
       </c>
       <c r="K94" s="1" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" ht="157.5" x14ac:dyDescent="0.25">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" ht="115" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>358</v>
+        <v>329</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F95" s="2">
-        <v>45138</v>
+        <v>45301</v>
       </c>
       <c r="G95" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H95" s="3" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="I95" s="4" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="J95" s="4" t="s">
-        <v>480</v>
+        <v>467</v>
       </c>
       <c r="K95" s="1" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" ht="136.5" x14ac:dyDescent="0.25">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" ht="138" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>338</v>
+        <v>311</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F96" s="2">
-        <v>45301</v>
+        <v>43651</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H96" s="3" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="I96" s="4" t="s">
-        <v>457</v>
+        <v>443</v>
       </c>
       <c r="J96" s="4" t="s">
-        <v>481</v>
+        <v>468</v>
       </c>
       <c r="K96" s="1" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" ht="147" x14ac:dyDescent="0.25">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" ht="161" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F97" s="2">
-        <v>43651</v>
+        <v>44013</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H97" s="3" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="I97" s="4" t="s">
-        <v>457</v>
+        <v>443</v>
       </c>
       <c r="J97" s="4" t="s">
-        <v>482</v>
+        <v>469</v>
       </c>
       <c r="K97" s="1" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" ht="168" x14ac:dyDescent="0.25">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" ht="115" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>320</v>
+        <v>210</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F98" s="2">
-        <v>44013</v>
+        <v>41640</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H98" s="3" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="I98" s="4" t="s">
-        <v>457</v>
+        <v>417</v>
       </c>
       <c r="J98" s="4" t="s">
-        <v>483</v>
+        <v>470</v>
       </c>
       <c r="K98" s="1" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" ht="147" x14ac:dyDescent="0.25">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" ht="34.5" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
-        <v>98</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>369</v>
+        <v>99</v>
+      </c>
+      <c r="B99" s="7" t="s">
+        <v>791</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="E99" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="D99" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="E99" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F99" s="2">
-        <v>41640</v>
-      </c>
-      <c r="G99" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H99" s="3" t="s">
-        <v>371</v>
-      </c>
+      <c r="F99" s="2"/>
+      <c r="G99" s="7" t="s">
+        <v>793</v>
+      </c>
+      <c r="H99" s="3"/>
       <c r="I99" s="4" t="s">
-        <v>431</v>
-      </c>
-      <c r="J99" s="4" t="s">
-        <v>484</v>
-      </c>
-      <c r="K99" s="1" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" ht="157.5" x14ac:dyDescent="0.25">
-      <c r="A100" s="1">
-        <v>99</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F100" s="2">
-        <v>45078</v>
-      </c>
-      <c r="G100" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="I100" s="4" t="s">
-        <v>431</v>
-      </c>
-      <c r="J100" s="4" t="s">
-        <v>485</v>
-      </c>
-      <c r="K100" s="1" t="s">
-        <v>588</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="J99" s="4"/>
+      <c r="K99" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -6500,85 +6438,83 @@
     <hyperlink ref="H19" r:id="rId18" display="https://eur-lex.europa.eu/legal-content/ES/TXT/?uri=CELEX%253A32024R1689" xr:uid="{85DCCBAF-5DD0-4C26-AB4B-094AF88354E5}"/>
     <hyperlink ref="H20" r:id="rId19" display="https://digital-strategy.ec.europa.eu/en/library/proposal-directive-adapting-non-contractual-civil-liability-rules-artificial-intelligence" xr:uid="{48B1449B-C019-4EBE-821D-79F39A6932A3}"/>
     <hyperlink ref="H21" r:id="rId20" display="https://digital-strategy.ec.europa.eu/en/policies/european-approach-artificial-intelligence" xr:uid="{1496D4F0-B944-4B5D-AE11-511BCC9F6719}"/>
-    <hyperlink ref="H22" r:id="rId21" display="https://digital-strategy.ec.europa.eu/en/policies/regulatory-framework-ai" xr:uid="{09DE2811-D931-41B7-85C0-341CE1BE7763}"/>
-    <hyperlink ref="H23" r:id="rId22" display="https://eur-lex.europa.eu/legal-content/ES/TXT/?uri=CELEX%253A32022R0868" xr:uid="{9AA9C9A5-F74E-4487-A6A2-7F89E98A3DE7}"/>
-    <hyperlink ref="H24" r:id="rId23" display="https://eur-lex.europa.eu/legal-content/ES/TXT/?uri=CELEX%253A32023R2854" xr:uid="{16705F09-324B-4649-9898-9490D8FFD032}"/>
-    <hyperlink ref="H25" r:id="rId24" display="https://eur-lex.europa.eu/legal-content/ES/TXT/?uri=CELEX%253A32019L1024" xr:uid="{E953B844-ABE3-4B12-9E41-07F571B65AC2}"/>
-    <hyperlink ref="H26" r:id="rId25" display="https://eur-lex.europa.eu/legal-content/ES/ALL/?uri=CELEX%253A32007L0002" xr:uid="{186D3DB3-6647-487F-8D24-E3431A362CDC}"/>
-    <hyperlink ref="H27" r:id="rId26" display="https://ec.europa.eu/info/research-and-innovation/strategy/strategy-2020-2024/our-digital-future/open-science/european-open-science-cloud-eosc_en" xr:uid="{99EF4B8D-0539-4B50-B86C-21C11547C826}"/>
-    <hyperlink ref="H28" r:id="rId27" display="https://ec.europa.eu/info/research-and-innovation/strategy/strategy-2020-2024/our-digital-future/open-science/european-open-science-cloud-eosc_en" xr:uid="{77B93E08-D5CE-4F4B-A10C-D76AF112EC3C}"/>
-    <hyperlink ref="H29" r:id="rId28" display="https://eur-lex.europa.eu/legal-content/ES/TXT/?uri=CELEX%253A32023R1372" xr:uid="{3373C8C6-74BE-43F3-86F3-2B7F8AE91A05}"/>
-    <hyperlink ref="H30" r:id="rId29" display="https://eur-lex.europa.eu/legal-content/ES/TXT/?uri=CELEX%253A32014R0910" xr:uid="{9C714431-D2C7-4515-BA73-FCA0B80DAB75}"/>
-    <hyperlink ref="H31" r:id="rId30" display="https://digital-strategy.ec.europa.eu/en/policies/eidas-revision" xr:uid="{A8B3B59D-8DAD-4AF9-BBC2-FB09DFC8B7DA}"/>
-    <hyperlink ref="H32" r:id="rId31" display="https://digital-strategy.ec.europa.eu/en/policies/european-digital-identity" xr:uid="{27E10ECB-CAEE-4969-9F39-43108C83144E}"/>
-    <hyperlink ref="H33" r:id="rId32" display="https://commission.europa.eu/strategy-and-policy/priorities-2019-2024/europe-fit-digital-age/european-digital-identity_en" xr:uid="{ED31F0EE-CEC8-411B-8061-26C848387B0A}"/>
-    <hyperlink ref="H34" r:id="rId33" display="https://eur-lex.europa.eu/legal-content/ES/TXT/?uri=CELEX%253A32024R1313" xr:uid="{576D65DD-5782-4513-95DB-57EE7463A2EE}"/>
-    <hyperlink ref="H35" r:id="rId34" display="https://eur-lex.europa.eu/legal-content/ES/TXT/?uri=CELEX%253A32014L0053" xr:uid="{FA77B489-44C7-44A3-8FED-0777B17DB747}"/>
-    <hyperlink ref="H36" r:id="rId35" display="https://eur-lex.europa.eu/legal-content/ES/ALL/?uri=CELEX%253A32001L0095" xr:uid="{75E8868B-6BB8-492C-B5DA-6DE75E08B0A9}"/>
-    <hyperlink ref="H37" r:id="rId36" display="https://eur-lex.europa.eu/legal-content/ES/TXT/?uri=CELEX%253A32023R0988" xr:uid="{FADEC7A9-88DB-4FD2-9E9F-CC48EAD3D927}"/>
-    <hyperlink ref="H38" r:id="rId37" display="https://eur-lex.europa.eu/legal-content/ES/TXT/?uri=CELEX%253A32023R1230" xr:uid="{BDC8A91C-1E1B-40BB-8A73-4056FCC08A77}"/>
-    <hyperlink ref="H39" r:id="rId38" display="https://eur-lex.europa.eu/eli/dir/2019/790/oj" xr:uid="{318CF3EF-DB32-4967-8AB8-72562BB800DE}"/>
-    <hyperlink ref="H40" r:id="rId39" display="https://eur-lex.europa.eu/legal-content/ES/TXT/?uri=CELEX%253A32019L0789" xr:uid="{B045758D-E4A7-4FB4-AAF5-817C4BA29B86}"/>
-    <hyperlink ref="H41" r:id="rId40" display="https://eur-lex.europa.eu/legal-content/ES/TXT/?uri=CELEX%253A32018L1808" xr:uid="{30CE1F2F-2113-4C78-9C13-02A7BAFD3EB4}"/>
-    <hyperlink ref="H42" r:id="rId41" display="https://eur-lex.europa.eu/legal-content/ES/TXT/?uri=CELEX%253A32012L0028" xr:uid="{649AB285-E0C2-4B4D-9680-B4E33F8122AA}"/>
-    <hyperlink ref="H43" r:id="rId42" display="https://eur-lex.europa.eu/legal-content/ES/ALL/?uri=CELEX%253A31996L0009" xr:uid="{EA200CF7-B63E-4871-B941-26E2C375703D}"/>
-    <hyperlink ref="H44" r:id="rId43" display="https://eur-lex.europa.eu/legal-content/ES/TXT/?uri=CELEX%253A32017R1001" xr:uid="{4CE76082-E713-497A-892D-58B6EDC9943C}"/>
-    <hyperlink ref="H45" r:id="rId44" display="https://eur-lex.europa.eu/legal-content/ES/TXT/?uri=CELEX%253A32017L1564" xr:uid="{1222EAC7-BBF6-439C-B26F-040B8864028F}"/>
-    <hyperlink ref="H46" r:id="rId45" display="https://eur-lex.europa.eu/legal-content/ES/TXT/?uri=CELEX%253A32018L1972" xr:uid="{1F3CD8A4-7875-4C94-A67F-18FC58B279C9}"/>
-    <hyperlink ref="H47" r:id="rId46" display="https://eur-lex.europa.eu/legal-content/ES/TXT/?uri=CELEX%253A32022R0612" xr:uid="{7C3C1EDE-1261-4B62-99A6-D8B563B7A5CB}"/>
-    <hyperlink ref="H48" r:id="rId47" display="https://eur-lex.europa.eu/legal-content/ES/TXT/?uri=CELEX%253A32018R1971" xr:uid="{8A71B901-CF39-4904-B5E9-E627C0472417}"/>
-    <hyperlink ref="H49" r:id="rId48" display="https://eur-lex.europa.eu/legal-content/ES/TXT/?uri=CELEX%253A32017D0899" xr:uid="{6EDC5B8A-91A0-4785-A77D-58B41C488025}"/>
-    <hyperlink ref="H50" r:id="rId49" display="https://eur-lex.europa.eu/legal-content/ES/TXT/?uri=CELEX%253A32017R1953" xr:uid="{5F9FF6F0-C763-443F-8DC0-59750F7A67B0}"/>
-    <hyperlink ref="H51" r:id="rId50" display="https://digital-strategy.ec.europa.eu/en/policies/5g" xr:uid="{08C8EE11-A783-4FE9-8A51-73D2EEE363FA}"/>
-    <hyperlink ref="H52" r:id="rId51" display="https://eur-lex.europa.eu/legal-content/ES/TXT/?uri=celex%253A32014L0061" xr:uid="{AAD48794-FC9D-4A96-BC6B-6ADB2D68D1AF}"/>
-    <hyperlink ref="H53" r:id="rId52" display="https://eur-lex.europa.eu/legal-content/ES/TXT/?uri=CELEX%253A32015L2366" xr:uid="{E3657533-314F-461A-923F-4F1EA37D126E}"/>
-    <hyperlink ref="H54" r:id="rId53" display="https://eur-lex.europa.eu/legal-content/ES/TXT/?uri=CELEX%253A32023R1114" xr:uid="{5D45E4A5-493D-42E5-8584-5EF9A56903AC}"/>
-    <hyperlink ref="H55" r:id="rId54" display="https://eur-lex.europa.eu/legal-content/ES/TXT/?uri=CELEX%253A32022R0858" xr:uid="{02489949-D640-4178-ABC9-D4B2575D91AE}"/>
-    <hyperlink ref="H56" r:id="rId55" display="https://eur-lex.europa.eu/legal-content/ES/ALL/?uri=CELEX%253A32012R0260" xr:uid="{D8D2C020-20CF-42B1-8A06-F4A686B4E929}"/>
-    <hyperlink ref="H57" r:id="rId56" display="https://ec.europa.eu/info/law/better-regulation/have-your-say/initiatives/13331-Pagos-instantaneos_es" xr:uid="{14E1D42C-C7F3-41FF-A103-6988ECB13B4C}"/>
-    <hyperlink ref="H58" r:id="rId57" display="https://eur-lex.europa.eu/legal-content/ES/TXT/?uri=CELEX%253A32015R1502" xr:uid="{C2CB1CAF-6EFE-4D3E-836C-F58AB53F8334}"/>
-    <hyperlink ref="H59" r:id="rId58" display="https://eur-lex.europa.eu/legal-content/ES/TXT/?uri=CELEX%253A32023R2511" xr:uid="{74BC2500-4277-4835-8E64-297F626203FE}"/>
-    <hyperlink ref="H60" r:id="rId59" display="https://ec.europa.eu/commission/presscorner/detail/es/ip_21_6605" xr:uid="{8B4FC29C-2125-4940-9830-ED47D5338D88}"/>
-    <hyperlink ref="H61" r:id="rId60" display="https://eur-lex.europa.eu/legal-content/ES/TXT/?uri=CELEX%253A32019R1150" xr:uid="{3143C82A-0A62-4FB0-9277-17FE63156515}"/>
-    <hyperlink ref="H62" r:id="rId61" display="https://eur-lex.europa.eu/legal-content/ES/TXT/?uri=CELEX%253A32018R1724" xr:uid="{0B2403FD-8A58-46F0-AFDC-BE7A4C586899}"/>
-    <hyperlink ref="H63" r:id="rId62" display="https://eur-lex.europa.eu/legal-content/ES/TXT/?uri=CELEX%253A32023R1543" xr:uid="{F93EAEEE-0953-4077-8EE6-AF8E4F957B29}"/>
-    <hyperlink ref="H64" r:id="rId63" display="https://health.ec.europa.eu/ehealth-digital-health-and-care/european-health-data-space_es" xr:uid="{BF7875F1-E881-4574-9FE3-86D194D4CBB8}"/>
-    <hyperlink ref="H65" r:id="rId64" display="https://eur-lex.europa.eu/legal-content/ES/TXT/?uri=CELEX%253A32023R1781" xr:uid="{C4071713-740C-4A48-A049-0D86E451EA84}"/>
-    <hyperlink ref="H66" r:id="rId65" display="https://eur-lex.europa.eu/legal-content/ES/TXT/?uri=CELEX%253A32022L2557" xr:uid="{861DE0F3-B297-46FE-87C4-A13C2BB3D81C}"/>
-    <hyperlink ref="H67" r:id="rId66" display="https://eur-lex.europa.eu/legal-content/ES/TXT/?uri=CELEX%253A32019L2161" xr:uid="{C93C26D0-39C0-45AA-A50F-EE2F5702B988}"/>
-    <hyperlink ref="H68" r:id="rId67" display="https://eur-lex.europa.eu/legal-content/ES/TXT/?uri=CELEX%253A32019L0770" xr:uid="{F320CDC4-14D2-4487-BE14-CE0F53119C62}"/>
-    <hyperlink ref="H69" r:id="rId68" display="https://commission.europa.eu/strategy-and-policy/policies/justice-and-fundamental-rights/child-sexual-abuse_en" xr:uid="{E582CC1A-B3B6-46B7-AB1E-5EA8D9861E98}"/>
-    <hyperlink ref="H70" r:id="rId69" display="https://digital-strategy.ec.europa.eu/en/policies/media-freedom-act" xr:uid="{F9D60056-CE8B-4429-9714-A2460ECF3B02}"/>
-    <hyperlink ref="H71" r:id="rId70" display="https://www.ecb.europa.eu/paym/digital_euro/html/index.es.html" xr:uid="{50F1261D-7EFF-4A05-BA1D-4BE5F0AB295B}"/>
-    <hyperlink ref="H72" r:id="rId71" display="https://commission.europa.eu/document/fa09cbad-dd7d-4684-ae60-be03fcb0fddf_en" xr:uid="{2CED609B-F3C3-4226-9D9A-BCFCBF40D4F5}"/>
-    <hyperlink ref="H73" r:id="rId72" display="https://eur-lex.europa.eu/legal-content/ES/TXT/?uri=CELEX%253A32019L1937" xr:uid="{F1F5EF18-C23C-48C2-949C-3DC3DA3964D8}"/>
-    <hyperlink ref="H74" r:id="rId73" display="https://eur-lex.europa.eu/legal-content/ES/TXT/?uri=CELEX%253A32018R1807" xr:uid="{5EF33D70-6B6D-47D7-AAE3-36FCC39BD79C}"/>
-    <hyperlink ref="H75" r:id="rId74" display="https://eur-lex.europa.eu/legal-content/ES/TXT/?uri=CELEX%253A32019L0882" xr:uid="{4E5DB7E2-187B-4C6F-A038-85E5415A5CB9}"/>
-    <hyperlink ref="H76" r:id="rId75" display="https://eur-lex.europa.eu/legal-content/ES/TXT/?uri=CELEX%253A32019R2152" xr:uid="{9F248AD6-DE7A-4968-A7A5-44EA584495E7}"/>
-    <hyperlink ref="H77" r:id="rId76" display="https://eur-lex.europa.eu/legal-content/ES/TXT/?uri=CELEX%253A32020L1828" xr:uid="{41E7AF04-63AC-41AA-BAE6-5467DEEC9D3B}"/>
-    <hyperlink ref="H78" r:id="rId77" display="https://eur-lex.europa.eu/legal-content/ES/TXT/?uri=CELEX%253A32021L0514" xr:uid="{0B361F4F-0E8F-46B3-AA74-CB273DDEA1E0}"/>
-    <hyperlink ref="H79" r:id="rId78" display="https://eur-lex.europa.eu/legal-content/ES/TXT/?uri=CELEX%253A32020R1503" xr:uid="{E0CD18F3-B54D-4F6A-A69C-03FA651ED481}"/>
-    <hyperlink ref="H80" r:id="rId79" display="https://finance.ec.europa.eu/regulation-and-supervision/financial-services-legislation/access-financial-data_en" xr:uid="{B271483A-DAB3-4044-BC13-68A4E37BE8D3}"/>
-    <hyperlink ref="H81" r:id="rId80" display="https://eur-lex.europa.eu/legal-content/ES/TXT/?uri=CELEX%253A32008L0048" xr:uid="{AFCDFE24-71F7-4263-94AD-526B1C34B4BE}"/>
-    <hyperlink ref="H82" r:id="rId81" display="https://eur-lex.europa.eu/legal-content/ES/TXT/?uri=CELEX%253A32022L0362" xr:uid="{B7345E88-D95A-47A9-BC02-F718AECEF1E4}"/>
-    <hyperlink ref="H83" r:id="rId82" display="https://eur-lex.europa.eu/legal-content/ES/TXT/?uri=CELEX%253A32010L0040" xr:uid="{C6F19FCD-B816-409F-B1B7-D7694ABACC5A}"/>
-    <hyperlink ref="H84" r:id="rId83" display="https://eur-lex.europa.eu/legal-content/ES/TXT/?uri=CELEX%253A32013R1052" xr:uid="{C70C48B3-9CA3-4CA0-BD97-B8B7F6E0B220}"/>
-    <hyperlink ref="H85" r:id="rId84" display="https://eur-lex.europa.eu/legal-content/ES/TXT/?uri=CELEX%253A32019R0816" xr:uid="{83C73519-E2B4-4B05-9572-139BF9E74A78}"/>
-    <hyperlink ref="H86" r:id="rId85" display="https://eur-lex.europa.eu/legal-content/ES/TXT/?uri=CELEX%253A32017R1939" xr:uid="{798269D6-6671-405C-9F9A-D976E16D6B3C}"/>
-    <hyperlink ref="H87" r:id="rId86" display="https://eur-lex.europa.eu/legal-content/ES/TXT/?uri=CELEX%253A32012L0029" xr:uid="{2CCA45AA-3B96-47A7-8A87-10E91665BEAC}"/>
-    <hyperlink ref="H88" r:id="rId87" display="https://eur-lex.europa.eu/legal-content/ES/TXT/?uri=CELEX%253A32016L1919" xr:uid="{2ACCC3F6-BF84-463B-8465-5C57960C6FB7}"/>
-    <hyperlink ref="H89" r:id="rId88" display="https://eur-lex.europa.eu/legal-content/ES/TXT/?uri=CELEX%253A32015R0848" xr:uid="{E05803AF-1DF0-4F08-BD67-B6F9B8FCBB72}"/>
-    <hyperlink ref="H90" r:id="rId89" display="https://eur-lex.europa.eu/legal-content/ES/TXT/?uri=CELEX%253A32014R1286" xr:uid="{DFA9ABFE-31D5-4BDB-A67C-D4787BD6F1AC}"/>
-    <hyperlink ref="H91" r:id="rId90" display="https://eur-lex.europa.eu/legal-content/ES/TXT/?uri=CELEX%253A32014L0065" xr:uid="{A1A37E13-4302-4A2C-87A0-B1B3713E1B90}"/>
-    <hyperlink ref="H92" r:id="rId91" display="https://eur-lex.europa.eu/legal-content/ES/TXT/?uri=CELEX%253A32016R1011" xr:uid="{27F89D7E-7362-47F7-BBAD-10C9BEF9D232}"/>
-    <hyperlink ref="H93" r:id="rId92" display="https://eur-lex.europa.eu/legal-content/ES/TXT/?uri=CELEX%253A32023R2859" xr:uid="{A31491DE-101C-411B-8121-A8D2F5895509}"/>
-    <hyperlink ref="H94" r:id="rId93" display="https://eur-lex.europa.eu/legal-content/ES/TXT/?uri=CELEX%253A32014L0055" xr:uid="{E0732D00-ECCA-47AA-9424-E30FE15EC967}"/>
-    <hyperlink ref="H95" r:id="rId94" display="https://eur-lex.europa.eu/legal-content/ES/TXT/?uri=CELEX%253A32023R1544" xr:uid="{3CBE4A11-800B-4C9E-849A-51F6A4855BF3}"/>
-    <hyperlink ref="H96" r:id="rId95" display="https://eur-lex.europa.eu/legal-content/ES/TXT/?uri=CELEX%253A32023R1113" xr:uid="{F6E34369-DDA4-4E4C-84C9-16B5F64D228E}"/>
-    <hyperlink ref="H97" r:id="rId96" display="https://eur-lex.europa.eu/legal-content/ES/TXT/?uri=CELEX%253A32017L1371" xr:uid="{89A66619-F5C6-4E53-A209-56BB43654E4D}"/>
-    <hyperlink ref="H98" r:id="rId97" display="https://eur-lex.europa.eu/legal-content/ES/TXT/?uri=CELEX%253A32019R2173" xr:uid="{BAD94FD3-C36A-4E15-A1FD-04061E4E44FA}"/>
-    <hyperlink ref="H99" r:id="rId98" display="https://eur-lex.europa.eu/legal-content/ES/TXT/?uri=CELEX%253A32014L0062" xr:uid="{090C356A-8B75-4F28-8498-FEB15D5AECC4}"/>
-    <hyperlink ref="H100" r:id="rId99" display="https://eur-lex.europa.eu/legal-content/ES/TXT/?uri=CELEX%253A32023R1116" xr:uid="{484A420E-D125-49D1-BF1B-EF963FE18E7C}"/>
+    <hyperlink ref="H22" r:id="rId21" display="https://eur-lex.europa.eu/legal-content/ES/TXT/?uri=CELEX%253A32022R0868" xr:uid="{9AA9C9A5-F74E-4487-A6A2-7F89E98A3DE7}"/>
+    <hyperlink ref="H23" r:id="rId22" display="https://eur-lex.europa.eu/legal-content/ES/TXT/?uri=CELEX%253A32023R2854" xr:uid="{16705F09-324B-4649-9898-9490D8FFD032}"/>
+    <hyperlink ref="H24" r:id="rId23" display="https://eur-lex.europa.eu/legal-content/ES/TXT/?uri=CELEX%253A32019L1024" xr:uid="{E953B844-ABE3-4B12-9E41-07F571B65AC2}"/>
+    <hyperlink ref="H25" r:id="rId24" display="https://eur-lex.europa.eu/legal-content/ES/ALL/?uri=CELEX%253A32007L0002" xr:uid="{186D3DB3-6647-487F-8D24-E3431A362CDC}"/>
+    <hyperlink ref="H26" r:id="rId25" display="https://ec.europa.eu/info/research-and-innovation/strategy/strategy-2020-2024/our-digital-future/open-science/european-open-science-cloud-eosc_en" xr:uid="{99EF4B8D-0539-4B50-B86C-21C11547C826}"/>
+    <hyperlink ref="H27" r:id="rId26" display="https://ec.europa.eu/info/research-and-innovation/strategy/strategy-2020-2024/our-digital-future/open-science/european-open-science-cloud-eosc_en" xr:uid="{77B93E08-D5CE-4F4B-A10C-D76AF112EC3C}"/>
+    <hyperlink ref="H28" r:id="rId27" display="https://eur-lex.europa.eu/legal-content/ES/TXT/?uri=CELEX%253A32023R1372" xr:uid="{3373C8C6-74BE-43F3-86F3-2B7F8AE91A05}"/>
+    <hyperlink ref="H29" r:id="rId28" display="https://eur-lex.europa.eu/legal-content/ES/TXT/?uri=CELEX%253A32014R0910" xr:uid="{9C714431-D2C7-4515-BA73-FCA0B80DAB75}"/>
+    <hyperlink ref="H30" r:id="rId29" display="https://digital-strategy.ec.europa.eu/en/policies/eidas-revision" xr:uid="{A8B3B59D-8DAD-4AF9-BBC2-FB09DFC8B7DA}"/>
+    <hyperlink ref="H31" r:id="rId30" display="https://digital-strategy.ec.europa.eu/en/policies/european-digital-identity" xr:uid="{27E10ECB-CAEE-4969-9F39-43108C83144E}"/>
+    <hyperlink ref="H32" r:id="rId31" display="https://commission.europa.eu/strategy-and-policy/priorities-2019-2024/europe-fit-digital-age/european-digital-identity_en" xr:uid="{ED31F0EE-CEC8-411B-8061-26C848387B0A}"/>
+    <hyperlink ref="H33" r:id="rId32" display="https://eur-lex.europa.eu/legal-content/ES/TXT/?uri=CELEX%253A32024R1313" xr:uid="{576D65DD-5782-4513-95DB-57EE7463A2EE}"/>
+    <hyperlink ref="H34" r:id="rId33" display="https://eur-lex.europa.eu/legal-content/ES/TXT/?uri=CELEX%253A32014L0053" xr:uid="{FA77B489-44C7-44A3-8FED-0777B17DB747}"/>
+    <hyperlink ref="H35" r:id="rId34" display="https://eur-lex.europa.eu/legal-content/ES/ALL/?uri=CELEX%253A32001L0095" xr:uid="{75E8868B-6BB8-492C-B5DA-6DE75E08B0A9}"/>
+    <hyperlink ref="H36" r:id="rId35" display="https://eur-lex.europa.eu/legal-content/ES/TXT/?uri=CELEX%253A32023R0988" xr:uid="{FADEC7A9-88DB-4FD2-9E9F-CC48EAD3D927}"/>
+    <hyperlink ref="H37" r:id="rId36" display="https://eur-lex.europa.eu/legal-content/ES/TXT/?uri=CELEX%253A32023R1230" xr:uid="{BDC8A91C-1E1B-40BB-8A73-4056FCC08A77}"/>
+    <hyperlink ref="H38" r:id="rId37" display="https://eur-lex.europa.eu/eli/dir/2019/790/oj" xr:uid="{318CF3EF-DB32-4967-8AB8-72562BB800DE}"/>
+    <hyperlink ref="H39" r:id="rId38" display="https://eur-lex.europa.eu/legal-content/ES/TXT/?uri=CELEX%253A32019L0789" xr:uid="{B045758D-E4A7-4FB4-AAF5-817C4BA29B86}"/>
+    <hyperlink ref="H40" r:id="rId39" display="https://eur-lex.europa.eu/legal-content/ES/TXT/?uri=CELEX%253A32018L1808" xr:uid="{30CE1F2F-2113-4C78-9C13-02A7BAFD3EB4}"/>
+    <hyperlink ref="H41" r:id="rId40" display="https://eur-lex.europa.eu/legal-content/ES/TXT/?uri=CELEX%253A32012L0028" xr:uid="{649AB285-E0C2-4B4D-9680-B4E33F8122AA}"/>
+    <hyperlink ref="H42" r:id="rId41" display="https://eur-lex.europa.eu/legal-content/ES/ALL/?uri=CELEX%253A31996L0009" xr:uid="{EA200CF7-B63E-4871-B941-26E2C375703D}"/>
+    <hyperlink ref="H43" r:id="rId42" display="https://eur-lex.europa.eu/legal-content/ES/TXT/?uri=CELEX%253A32017R1001" xr:uid="{4CE76082-E713-497A-892D-58B6EDC9943C}"/>
+    <hyperlink ref="H44" r:id="rId43" display="https://eur-lex.europa.eu/legal-content/ES/TXT/?uri=CELEX%253A32017L1564" xr:uid="{1222EAC7-BBF6-439C-B26F-040B8864028F}"/>
+    <hyperlink ref="H45" r:id="rId44" display="https://eur-lex.europa.eu/legal-content/ES/TXT/?uri=CELEX%253A32018L1972" xr:uid="{1F3CD8A4-7875-4C94-A67F-18FC58B279C9}"/>
+    <hyperlink ref="H46" r:id="rId45" display="https://eur-lex.europa.eu/legal-content/ES/TXT/?uri=CELEX%253A32022R0612" xr:uid="{7C3C1EDE-1261-4B62-99A6-D8B563B7A5CB}"/>
+    <hyperlink ref="H47" r:id="rId46" display="https://eur-lex.europa.eu/legal-content/ES/TXT/?uri=CELEX%253A32018R1971" xr:uid="{8A71B901-CF39-4904-B5E9-E627C0472417}"/>
+    <hyperlink ref="H48" r:id="rId47" display="https://eur-lex.europa.eu/legal-content/ES/TXT/?uri=CELEX%253A32017D0899" xr:uid="{6EDC5B8A-91A0-4785-A77D-58B41C488025}"/>
+    <hyperlink ref="H49" r:id="rId48" display="https://eur-lex.europa.eu/legal-content/ES/TXT/?uri=CELEX%253A32017R1953" xr:uid="{5F9FF6F0-C763-443F-8DC0-59750F7A67B0}"/>
+    <hyperlink ref="H50" r:id="rId49" display="https://digital-strategy.ec.europa.eu/en/policies/5g" xr:uid="{08C8EE11-A783-4FE9-8A51-73D2EEE363FA}"/>
+    <hyperlink ref="H51" r:id="rId50" display="https://eur-lex.europa.eu/legal-content/ES/TXT/?uri=celex%253A32014L0061" xr:uid="{AAD48794-FC9D-4A96-BC6B-6ADB2D68D1AF}"/>
+    <hyperlink ref="H52" r:id="rId51" display="https://eur-lex.europa.eu/legal-content/ES/TXT/?uri=CELEX%253A32015L2366" xr:uid="{E3657533-314F-461A-923F-4F1EA37D126E}"/>
+    <hyperlink ref="H53" r:id="rId52" display="https://eur-lex.europa.eu/legal-content/ES/TXT/?uri=CELEX%253A32023R1114" xr:uid="{5D45E4A5-493D-42E5-8584-5EF9A56903AC}"/>
+    <hyperlink ref="H54" r:id="rId53" display="https://eur-lex.europa.eu/legal-content/ES/TXT/?uri=CELEX%253A32022R0858" xr:uid="{02489949-D640-4178-ABC9-D4B2575D91AE}"/>
+    <hyperlink ref="H55" r:id="rId54" display="https://eur-lex.europa.eu/legal-content/ES/ALL/?uri=CELEX%253A32012R0260" xr:uid="{D8D2C020-20CF-42B1-8A06-F4A686B4E929}"/>
+    <hyperlink ref="H56" r:id="rId55" display="https://ec.europa.eu/info/law/better-regulation/have-your-say/initiatives/13331-Pagos-instantaneos_es" xr:uid="{14E1D42C-C7F3-41FF-A103-6988ECB13B4C}"/>
+    <hyperlink ref="H57" r:id="rId56" display="https://eur-lex.europa.eu/legal-content/ES/TXT/?uri=CELEX%253A32015R1502" xr:uid="{C2CB1CAF-6EFE-4D3E-836C-F58AB53F8334}"/>
+    <hyperlink ref="H58" r:id="rId57" display="https://eur-lex.europa.eu/legal-content/ES/TXT/?uri=CELEX%253A32023R2511" xr:uid="{74BC2500-4277-4835-8E64-297F626203FE}"/>
+    <hyperlink ref="H59" r:id="rId58" display="https://ec.europa.eu/commission/presscorner/detail/es/ip_21_6605" xr:uid="{8B4FC29C-2125-4940-9830-ED47D5338D88}"/>
+    <hyperlink ref="H60" r:id="rId59" display="https://eur-lex.europa.eu/legal-content/ES/TXT/?uri=CELEX%253A32019R1150" xr:uid="{3143C82A-0A62-4FB0-9277-17FE63156515}"/>
+    <hyperlink ref="H61" r:id="rId60" display="https://eur-lex.europa.eu/legal-content/ES/TXT/?uri=CELEX%253A32018R1724" xr:uid="{0B2403FD-8A58-46F0-AFDC-BE7A4C586899}"/>
+    <hyperlink ref="H62" r:id="rId61" display="https://eur-lex.europa.eu/legal-content/ES/TXT/?uri=CELEX%253A32023R1543" xr:uid="{F93EAEEE-0953-4077-8EE6-AF8E4F957B29}"/>
+    <hyperlink ref="H63" r:id="rId62" display="https://health.ec.europa.eu/ehealth-digital-health-and-care/european-health-data-space_es" xr:uid="{BF7875F1-E881-4574-9FE3-86D194D4CBB8}"/>
+    <hyperlink ref="H64" r:id="rId63" display="https://eur-lex.europa.eu/legal-content/ES/TXT/?uri=CELEX%253A32023R1781" xr:uid="{C4071713-740C-4A48-A049-0D86E451EA84}"/>
+    <hyperlink ref="H65" r:id="rId64" display="https://eur-lex.europa.eu/legal-content/ES/TXT/?uri=CELEX%253A32022L2557" xr:uid="{861DE0F3-B297-46FE-87C4-A13C2BB3D81C}"/>
+    <hyperlink ref="H66" r:id="rId65" display="https://eur-lex.europa.eu/legal-content/ES/TXT/?uri=CELEX%253A32019L2161" xr:uid="{C93C26D0-39C0-45AA-A50F-EE2F5702B988}"/>
+    <hyperlink ref="H67" r:id="rId66" display="https://eur-lex.europa.eu/legal-content/ES/TXT/?uri=CELEX%253A32019L0770" xr:uid="{F320CDC4-14D2-4487-BE14-CE0F53119C62}"/>
+    <hyperlink ref="H68" r:id="rId67" display="https://commission.europa.eu/strategy-and-policy/policies/justice-and-fundamental-rights/child-sexual-abuse_en" xr:uid="{E582CC1A-B3B6-46B7-AB1E-5EA8D9861E98}"/>
+    <hyperlink ref="H69" r:id="rId68" display="https://digital-strategy.ec.europa.eu/en/policies/media-freedom-act" xr:uid="{F9D60056-CE8B-4429-9714-A2460ECF3B02}"/>
+    <hyperlink ref="H70" r:id="rId69" display="https://www.ecb.europa.eu/paym/digital_euro/html/index.es.html" xr:uid="{50F1261D-7EFF-4A05-BA1D-4BE5F0AB295B}"/>
+    <hyperlink ref="H71" r:id="rId70" display="https://commission.europa.eu/document/fa09cbad-dd7d-4684-ae60-be03fcb0fddf_en" xr:uid="{2CED609B-F3C3-4226-9D9A-BCFCBF40D4F5}"/>
+    <hyperlink ref="H72" r:id="rId71" display="https://eur-lex.europa.eu/legal-content/ES/TXT/?uri=CELEX%253A32019L1937" xr:uid="{F1F5EF18-C23C-48C2-949C-3DC3DA3964D8}"/>
+    <hyperlink ref="H73" r:id="rId72" display="https://eur-lex.europa.eu/legal-content/ES/TXT/?uri=CELEX%253A32018R1807" xr:uid="{5EF33D70-6B6D-47D7-AAE3-36FCC39BD79C}"/>
+    <hyperlink ref="H74" r:id="rId73" display="https://eur-lex.europa.eu/legal-content/ES/TXT/?uri=CELEX%253A32019L0882" xr:uid="{4E5DB7E2-187B-4C6F-A038-85E5415A5CB9}"/>
+    <hyperlink ref="H75" r:id="rId74" display="https://eur-lex.europa.eu/legal-content/ES/TXT/?uri=CELEX%253A32019R2152" xr:uid="{9F248AD6-DE7A-4968-A7A5-44EA584495E7}"/>
+    <hyperlink ref="H76" r:id="rId75" display="https://eur-lex.europa.eu/legal-content/ES/TXT/?uri=CELEX%253A32020L1828" xr:uid="{41E7AF04-63AC-41AA-BAE6-5467DEEC9D3B}"/>
+    <hyperlink ref="H77" r:id="rId76" display="https://eur-lex.europa.eu/legal-content/ES/TXT/?uri=CELEX%253A32021L0514" xr:uid="{0B361F4F-0E8F-46B3-AA74-CB273DDEA1E0}"/>
+    <hyperlink ref="H78" r:id="rId77" display="https://eur-lex.europa.eu/legal-content/ES/TXT/?uri=CELEX%253A32020R1503" xr:uid="{E0CD18F3-B54D-4F6A-A69C-03FA651ED481}"/>
+    <hyperlink ref="H79" r:id="rId78" display="https://finance.ec.europa.eu/regulation-and-supervision/financial-services-legislation/access-financial-data_en" xr:uid="{B271483A-DAB3-4044-BC13-68A4E37BE8D3}"/>
+    <hyperlink ref="H80" r:id="rId79" display="https://eur-lex.europa.eu/legal-content/ES/TXT/?uri=CELEX%253A32008L0048" xr:uid="{AFCDFE24-71F7-4263-94AD-526B1C34B4BE}"/>
+    <hyperlink ref="H81" r:id="rId80" display="https://eur-lex.europa.eu/legal-content/ES/TXT/?uri=CELEX%253A32022L0362" xr:uid="{B7345E88-D95A-47A9-BC02-F718AECEF1E4}"/>
+    <hyperlink ref="H82" r:id="rId81" display="https://eur-lex.europa.eu/legal-content/ES/TXT/?uri=CELEX%253A32010L0040" xr:uid="{C6F19FCD-B816-409F-B1B7-D7694ABACC5A}"/>
+    <hyperlink ref="H83" r:id="rId82" display="https://eur-lex.europa.eu/legal-content/ES/TXT/?uri=CELEX%253A32013R1052" xr:uid="{C70C48B3-9CA3-4CA0-BD97-B8B7F6E0B220}"/>
+    <hyperlink ref="H84" r:id="rId83" display="https://eur-lex.europa.eu/legal-content/ES/TXT/?uri=CELEX%253A32019R0816" xr:uid="{83C73519-E2B4-4B05-9572-139BF9E74A78}"/>
+    <hyperlink ref="H85" r:id="rId84" display="https://eur-lex.europa.eu/legal-content/ES/TXT/?uri=CELEX%253A32017R1939" xr:uid="{798269D6-6671-405C-9F9A-D976E16D6B3C}"/>
+    <hyperlink ref="H86" r:id="rId85" display="https://eur-lex.europa.eu/legal-content/ES/TXT/?uri=CELEX%253A32012L0029" xr:uid="{2CCA45AA-3B96-47A7-8A87-10E91665BEAC}"/>
+    <hyperlink ref="H87" r:id="rId86" display="https://eur-lex.europa.eu/legal-content/ES/TXT/?uri=CELEX%253A32016L1919" xr:uid="{2ACCC3F6-BF84-463B-8465-5C57960C6FB7}"/>
+    <hyperlink ref="H88" r:id="rId87" display="https://eur-lex.europa.eu/legal-content/ES/TXT/?uri=CELEX%253A32015R0848" xr:uid="{E05803AF-1DF0-4F08-BD67-B6F9B8FCBB72}"/>
+    <hyperlink ref="H89" r:id="rId88" display="https://eur-lex.europa.eu/legal-content/ES/TXT/?uri=CELEX%253A32014R1286" xr:uid="{DFA9ABFE-31D5-4BDB-A67C-D4787BD6F1AC}"/>
+    <hyperlink ref="H90" r:id="rId89" display="https://eur-lex.europa.eu/legal-content/ES/TXT/?uri=CELEX%253A32014L0065" xr:uid="{A1A37E13-4302-4A2C-87A0-B1B3713E1B90}"/>
+    <hyperlink ref="H91" r:id="rId90" display="https://eur-lex.europa.eu/legal-content/ES/TXT/?uri=CELEX%253A32016R1011" xr:uid="{27F89D7E-7362-47F7-BBAD-10C9BEF9D232}"/>
+    <hyperlink ref="H92" r:id="rId91" display="https://eur-lex.europa.eu/legal-content/ES/TXT/?uri=CELEX%253A32023R2859" xr:uid="{A31491DE-101C-411B-8121-A8D2F5895509}"/>
+    <hyperlink ref="H93" r:id="rId92" display="https://eur-lex.europa.eu/legal-content/ES/TXT/?uri=CELEX%253A32014L0055" xr:uid="{E0732D00-ECCA-47AA-9424-E30FE15EC967}"/>
+    <hyperlink ref="H94" r:id="rId93" display="https://eur-lex.europa.eu/legal-content/ES/TXT/?uri=CELEX%253A32023R1544" xr:uid="{3CBE4A11-800B-4C9E-849A-51F6A4855BF3}"/>
+    <hyperlink ref="H95" r:id="rId94" display="https://eur-lex.europa.eu/legal-content/ES/TXT/?uri=CELEX%253A32023R1113" xr:uid="{F6E34369-DDA4-4E4C-84C9-16B5F64D228E}"/>
+    <hyperlink ref="H96" r:id="rId95" display="https://eur-lex.europa.eu/legal-content/ES/TXT/?uri=CELEX%253A32017L1371" xr:uid="{89A66619-F5C6-4E53-A209-56BB43654E4D}"/>
+    <hyperlink ref="H97" r:id="rId96" display="https://eur-lex.europa.eu/legal-content/ES/TXT/?uri=CELEX%253A32019R2173" xr:uid="{BAD94FD3-C36A-4E15-A1FD-04061E4E44FA}"/>
+    <hyperlink ref="H98" r:id="rId97" display="https://eur-lex.europa.eu/legal-content/ES/TXT/?uri=CELEX%253A32014L0062" xr:uid="{090C356A-8B75-4F28-8498-FEB15D5AECC4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6588,30 +6524,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{800372F7-E755-4191-9A45-497249E5D9C8}">
   <dimension ref="A1:E201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C93" sqref="C93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>486</v>
+        <v>471</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>487</v>
+        <v>472</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>593</v>
+        <v>576</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="180" x14ac:dyDescent="0.25">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="145" x14ac:dyDescent="0.35">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -6622,13 +6558,13 @@
         <v>2</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>489</v>
+        <v>474</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A3" s="9">
         <v>2</v>
       </c>
@@ -6639,13 +6575,13 @@
         <v>3</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>781</v>
+        <v>764</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A4" s="9">
         <v>3</v>
       </c>
@@ -6656,13 +6592,13 @@
         <v>4</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>596</v>
+        <v>579</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="180" x14ac:dyDescent="0.25">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="174" x14ac:dyDescent="0.35">
       <c r="A5" s="9">
         <v>4</v>
       </c>
@@ -6673,13 +6609,13 @@
         <v>5</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A6" s="9">
         <v>5</v>
       </c>
@@ -6690,13 +6626,13 @@
         <v>22</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>600</v>
+        <v>583</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="116" x14ac:dyDescent="0.35">
       <c r="A7" s="9">
         <v>6</v>
       </c>
@@ -6707,13 +6643,13 @@
         <v>23</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>600</v>
+        <v>583</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="225" x14ac:dyDescent="0.25">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A8" s="9">
         <v>7</v>
       </c>
@@ -6724,13 +6660,13 @@
         <v>29</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>608</v>
+        <v>591</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="180" x14ac:dyDescent="0.25">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="145" x14ac:dyDescent="0.35">
       <c r="A9" s="9">
         <v>8</v>
       </c>
@@ -6741,13 +6677,13 @@
         <v>71</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>600</v>
+        <v>583</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="116" x14ac:dyDescent="0.35">
       <c r="A10" s="9">
         <v>9</v>
       </c>
@@ -6758,13 +6694,13 @@
         <v>3</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>781</v>
+        <v>764</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A11" s="9">
         <v>10</v>
       </c>
@@ -6775,13 +6711,13 @@
         <v>6</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="195" x14ac:dyDescent="0.25">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="174" x14ac:dyDescent="0.35">
       <c r="A12" s="9">
         <v>11</v>
       </c>
@@ -6792,13 +6728,13 @@
         <v>6</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>489</v>
+        <v>474</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="180" x14ac:dyDescent="0.25">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="145" x14ac:dyDescent="0.35">
       <c r="A13" s="9">
         <v>12</v>
       </c>
@@ -6809,13 +6745,13 @@
         <v>62</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>608</v>
+        <v>591</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="180" x14ac:dyDescent="0.25">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="174" x14ac:dyDescent="0.35">
       <c r="A14" s="9">
         <v>13</v>
       </c>
@@ -6826,13 +6762,13 @@
         <v>29</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="145" x14ac:dyDescent="0.35">
       <c r="A15" s="9">
         <v>14</v>
       </c>
@@ -6843,13 +6779,13 @@
         <v>7</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>489</v>
+        <v>474</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A16" s="9">
         <v>15</v>
       </c>
@@ -6860,13 +6796,13 @@
         <v>8</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>781</v>
+        <v>764</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="195" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A17" s="9">
         <v>16</v>
       </c>
@@ -6877,13 +6813,13 @@
         <v>9</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>608</v>
+        <v>591</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="180" x14ac:dyDescent="0.25">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A18" s="9">
         <v>17</v>
       </c>
@@ -6894,13 +6830,13 @@
         <v>10</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="195" x14ac:dyDescent="0.25">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A19" s="9">
         <v>18</v>
       </c>
@@ -6911,13 +6847,13 @@
         <v>11</v>
       </c>
       <c r="D19" s="9" t="s">
+        <v>581</v>
+      </c>
+      <c r="E19" s="9" t="s">
         <v>598</v>
       </c>
-      <c r="E19" s="9" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:5" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A20" s="9">
         <v>19</v>
       </c>
@@ -6928,13 +6864,13 @@
         <v>12</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>596</v>
+        <v>579</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="116" x14ac:dyDescent="0.35">
       <c r="A21" s="9">
         <v>20</v>
       </c>
@@ -6945,13 +6881,13 @@
         <v>38</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="180" x14ac:dyDescent="0.25">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A22" s="9">
         <v>21</v>
       </c>
@@ -6962,13 +6898,13 @@
         <v>60</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>489</v>
+        <v>474</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="180" x14ac:dyDescent="0.25">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="174" x14ac:dyDescent="0.35">
       <c r="A23" s="9">
         <v>22</v>
       </c>
@@ -6979,13 +6915,13 @@
         <v>68</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="145" x14ac:dyDescent="0.35">
       <c r="A24" s="9">
         <v>23</v>
       </c>
@@ -6996,13 +6932,13 @@
         <v>69</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>600</v>
+        <v>583</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A25" s="9">
         <v>24</v>
       </c>
@@ -7013,13 +6949,13 @@
         <v>9</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A26" s="9">
         <v>25</v>
       </c>
@@ -7030,13 +6966,13 @@
         <v>38</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>600</v>
+        <v>583</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="180" x14ac:dyDescent="0.25">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="174" x14ac:dyDescent="0.35">
       <c r="A27" s="9">
         <v>26</v>
       </c>
@@ -7047,13 +6983,13 @@
         <v>60</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>781</v>
+        <v>764</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="145" x14ac:dyDescent="0.35">
       <c r="A28" s="9">
         <v>27</v>
       </c>
@@ -7064,13 +7000,13 @@
         <v>78</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A29" s="9">
         <v>28</v>
       </c>
@@ -7081,13 +7017,13 @@
         <v>60</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>781</v>
+        <v>764</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="195" x14ac:dyDescent="0.25">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="174" x14ac:dyDescent="0.35">
       <c r="A30" s="9">
         <v>29</v>
       </c>
@@ -7098,13 +7034,13 @@
         <v>66</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>489</v>
+        <v>474</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A31" s="9">
         <v>30</v>
       </c>
@@ -7115,13 +7051,13 @@
         <v>66</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A32" s="9">
         <v>31</v>
       </c>
@@ -7132,13 +7068,13 @@
         <v>68</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>608</v>
+        <v>591</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A33" s="9">
         <v>32</v>
       </c>
@@ -7149,13 +7085,13 @@
         <v>14</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>781</v>
+        <v>764</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A34" s="9">
         <v>33</v>
       </c>
@@ -7166,13 +7102,13 @@
         <v>15</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>608</v>
+        <v>591</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A35" s="9">
         <v>34</v>
       </c>
@@ -7183,13 +7119,13 @@
         <v>17</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>600</v>
+        <v>583</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="145" x14ac:dyDescent="0.35">
       <c r="A36" s="9">
         <v>35</v>
       </c>
@@ -7200,13 +7136,13 @@
         <v>15</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>489</v>
+        <v>474</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A37" s="9">
         <v>36</v>
       </c>
@@ -7217,13 +7153,13 @@
         <v>16</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>596</v>
+        <v>579</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A38" s="9">
         <v>37</v>
       </c>
@@ -7234,13 +7170,13 @@
         <v>17</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A39" s="9">
         <v>38</v>
       </c>
@@ -7251,13 +7187,13 @@
         <v>33</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>608</v>
+        <v>591</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A40" s="9">
         <v>39</v>
       </c>
@@ -7268,13 +7204,13 @@
         <v>65</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>608</v>
+        <v>591</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="145" x14ac:dyDescent="0.35">
       <c r="A41" s="9">
         <v>40</v>
       </c>
@@ -7285,13 +7221,13 @@
         <v>17</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>781</v>
+        <v>764</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A42" s="9">
         <v>41</v>
       </c>
@@ -7302,13 +7238,13 @@
         <v>33</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>489</v>
+        <v>474</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="180" x14ac:dyDescent="0.25">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A43" s="9">
         <v>42</v>
       </c>
@@ -7319,13 +7255,13 @@
         <v>52</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>596</v>
+        <v>579</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="145" x14ac:dyDescent="0.35">
       <c r="A44" s="9">
         <v>43</v>
       </c>
@@ -7336,13 +7272,13 @@
         <v>33</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>600</v>
+        <v>583</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="145" x14ac:dyDescent="0.35">
       <c r="A45" s="9">
         <v>44</v>
       </c>
@@ -7353,13 +7289,13 @@
         <v>19</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>489</v>
+        <v>474</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="87" x14ac:dyDescent="0.35">
       <c r="A46" s="9">
         <v>45</v>
       </c>
@@ -7370,13 +7306,13 @@
         <v>20</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A47" s="9">
         <v>46</v>
       </c>
@@ -7387,13 +7323,13 @@
         <v>21</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>608</v>
+        <v>591</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="116" x14ac:dyDescent="0.35">
       <c r="A48" s="9">
         <v>47</v>
       </c>
@@ -7404,13 +7340,13 @@
         <v>20</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>781</v>
+        <v>764</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="116" x14ac:dyDescent="0.35">
       <c r="A49" s="9">
         <v>48</v>
       </c>
@@ -7421,13 +7357,13 @@
         <v>21</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>600</v>
+        <v>583</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A50" s="9">
         <v>49</v>
       </c>
@@ -7438,13 +7374,13 @@
         <v>22</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A51" s="9">
         <v>50</v>
       </c>
@@ -7455,13 +7391,13 @@
         <v>23</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>600</v>
+        <v>583</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="145" x14ac:dyDescent="0.35">
       <c r="A52" s="9">
         <v>51</v>
       </c>
@@ -7472,13 +7408,13 @@
         <v>23</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>489</v>
+        <v>474</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A53" s="9">
         <v>52</v>
       </c>
@@ -7489,13 +7425,13 @@
         <v>24</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>608</v>
+        <v>591</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A54" s="9">
         <v>53</v>
       </c>
@@ -7506,13 +7442,13 @@
         <v>26</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="87" x14ac:dyDescent="0.35">
       <c r="A55" s="9">
         <v>54</v>
       </c>
@@ -7523,13 +7459,13 @@
         <v>27</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>600</v>
+        <v>583</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="116" x14ac:dyDescent="0.35">
       <c r="A56" s="9">
         <v>55</v>
       </c>
@@ -7540,13 +7476,13 @@
         <v>28</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="145" x14ac:dyDescent="0.35">
       <c r="A57" s="9">
         <v>56</v>
       </c>
@@ -7557,13 +7493,13 @@
         <v>24</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>489</v>
+        <v>474</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A58" s="9">
         <v>57</v>
       </c>
@@ -7574,13 +7510,13 @@
         <v>73</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A59" s="9">
         <v>58</v>
       </c>
@@ -7591,13 +7527,13 @@
         <v>28</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>596</v>
+        <v>579</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="145" x14ac:dyDescent="0.35">
       <c r="A60" s="9">
         <v>59</v>
       </c>
@@ -7608,13 +7544,13 @@
         <v>75</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>608</v>
+        <v>591</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A61" s="9">
         <v>60</v>
       </c>
@@ -7625,13 +7561,13 @@
         <v>28</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>600</v>
+        <v>583</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A62" s="9">
         <v>61</v>
       </c>
@@ -7642,13 +7578,13 @@
         <v>27</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="116" x14ac:dyDescent="0.35">
       <c r="A63" s="9">
         <v>62</v>
       </c>
@@ -7659,13 +7595,13 @@
         <v>28</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>600</v>
+        <v>583</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A64" s="9">
         <v>63</v>
       </c>
@@ -7676,13 +7612,13 @@
         <v>30</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>781</v>
+        <v>764</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="116" x14ac:dyDescent="0.35">
       <c r="A65" s="9">
         <v>64</v>
       </c>
@@ -7693,13 +7629,13 @@
         <v>31</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="116" x14ac:dyDescent="0.35">
       <c r="A66" s="9">
         <v>65</v>
       </c>
@@ -7710,13 +7646,13 @@
         <v>32</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>608</v>
+        <v>591</v>
       </c>
       <c r="E66" s="9" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A67" s="9">
         <v>66</v>
       </c>
@@ -7727,13 +7663,13 @@
         <v>57</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
       <c r="E67" s="9" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A68" s="9">
         <v>67</v>
       </c>
@@ -7744,13 +7680,13 @@
         <v>31</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>596</v>
+        <v>579</v>
       </c>
       <c r="E68" s="9" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A69" s="9">
         <v>68</v>
       </c>
@@ -7761,13 +7697,13 @@
         <v>32</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>781</v>
+        <v>764</v>
       </c>
       <c r="E69" s="9" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A70" s="9">
         <v>69</v>
       </c>
@@ -7778,13 +7714,13 @@
         <v>32</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
       <c r="E70" s="9" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="116" x14ac:dyDescent="0.35">
       <c r="A71" s="9">
         <v>70</v>
       </c>
@@ -7795,13 +7731,13 @@
         <v>34</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>489</v>
+        <v>474</v>
       </c>
       <c r="E71" s="9" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="145" x14ac:dyDescent="0.35">
       <c r="A72" s="9">
         <v>71</v>
       </c>
@@ -7812,13 +7748,13 @@
         <v>35</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>608</v>
+        <v>591</v>
       </c>
       <c r="E72" s="9" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="145" x14ac:dyDescent="0.35">
       <c r="A73" s="9">
         <v>72</v>
       </c>
@@ -7829,13 +7765,13 @@
         <v>36</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>596</v>
+        <v>579</v>
       </c>
       <c r="E73" s="9" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="145" x14ac:dyDescent="0.35">
       <c r="A74" s="9">
         <v>73</v>
       </c>
@@ -7846,13 +7782,13 @@
         <v>37</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>489</v>
+        <v>474</v>
       </c>
       <c r="E74" s="9" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A75" s="9">
         <v>74</v>
       </c>
@@ -7863,13 +7799,13 @@
         <v>35</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>608</v>
+        <v>591</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="145" x14ac:dyDescent="0.35">
       <c r="A76" s="9">
         <v>75</v>
       </c>
@@ -7880,13 +7816,13 @@
         <v>36</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>781</v>
+        <v>764</v>
       </c>
       <c r="E76" s="9" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" ht="180" x14ac:dyDescent="0.25">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="174" x14ac:dyDescent="0.35">
       <c r="A77" s="9">
         <v>76</v>
       </c>
@@ -7897,13 +7833,13 @@
         <v>37</v>
       </c>
       <c r="D77" s="9" t="s">
-        <v>608</v>
+        <v>591</v>
       </c>
       <c r="E77" s="9" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" ht="180" x14ac:dyDescent="0.25">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="174" x14ac:dyDescent="0.35">
       <c r="A78" s="9">
         <v>77</v>
       </c>
@@ -7914,13 +7850,13 @@
         <v>37</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>489</v>
+        <v>474</v>
       </c>
       <c r="E78" s="9" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A79" s="9">
         <v>78</v>
       </c>
@@ -7931,13 +7867,13 @@
         <v>39</v>
       </c>
       <c r="D79" s="9" t="s">
-        <v>489</v>
+        <v>474</v>
       </c>
       <c r="E79" s="9" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="116" x14ac:dyDescent="0.35">
       <c r="A80" s="9">
         <v>79</v>
       </c>
@@ -7948,13 +7884,13 @@
         <v>40</v>
       </c>
       <c r="D80" s="9" t="s">
-        <v>608</v>
+        <v>591</v>
       </c>
       <c r="E80" s="9" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A81" s="9">
         <v>80</v>
       </c>
@@ -7965,13 +7901,13 @@
         <v>41</v>
       </c>
       <c r="D81" s="9" t="s">
-        <v>596</v>
+        <v>579</v>
       </c>
       <c r="E81" s="9" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A82" s="9">
         <v>81</v>
       </c>
@@ -7982,13 +7918,13 @@
         <v>42</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>489</v>
+        <v>474</v>
       </c>
       <c r="E82" s="9" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="116" x14ac:dyDescent="0.35">
       <c r="A83" s="9">
         <v>82</v>
       </c>
@@ -7999,13 +7935,13 @@
         <v>43</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
       <c r="E83" s="9" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" ht="195" x14ac:dyDescent="0.25">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="174" x14ac:dyDescent="0.35">
       <c r="A84" s="9">
         <v>83</v>
       </c>
@@ -8016,13 +7952,13 @@
         <v>44</v>
       </c>
       <c r="D84" s="9" t="s">
-        <v>596</v>
+        <v>579</v>
       </c>
       <c r="E84" s="9" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="116" x14ac:dyDescent="0.35">
       <c r="A85" s="9">
         <v>84</v>
       </c>
@@ -8033,13 +7969,13 @@
         <v>69</v>
       </c>
       <c r="D85" s="9" t="s">
-        <v>608</v>
+        <v>591</v>
       </c>
       <c r="E85" s="9" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="145" x14ac:dyDescent="0.35">
       <c r="A86" s="9">
         <v>85</v>
       </c>
@@ -8050,13 +7986,13 @@
         <v>40</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>489</v>
+        <v>474</v>
       </c>
       <c r="E86" s="9" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A87" s="9">
         <v>86</v>
       </c>
@@ -8067,13 +8003,13 @@
         <v>69</v>
       </c>
       <c r="D87" s="9" t="s">
-        <v>608</v>
+        <v>591</v>
       </c>
       <c r="E87" s="9" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A88" s="9">
         <v>87</v>
       </c>
@@ -8084,13 +8020,13 @@
         <v>44</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>600</v>
+        <v>583</v>
       </c>
       <c r="E88" s="9" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" ht="180" x14ac:dyDescent="0.25">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="174" x14ac:dyDescent="0.35">
       <c r="A89" s="9">
         <v>88</v>
       </c>
@@ -8101,13 +8037,13 @@
         <v>43</v>
       </c>
       <c r="D89" s="9" t="s">
-        <v>489</v>
+        <v>474</v>
       </c>
       <c r="E89" s="9" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" ht="180" x14ac:dyDescent="0.25">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A90" s="9">
         <v>89</v>
       </c>
@@ -8118,13 +8054,13 @@
         <v>46</v>
       </c>
       <c r="D90" s="9" t="s">
-        <v>489</v>
+        <v>474</v>
       </c>
       <c r="E90" s="9" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A91" s="9">
         <v>90</v>
       </c>
@@ -8135,13 +8071,13 @@
         <v>47</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>608</v>
+        <v>591</v>
       </c>
       <c r="E91" s="9" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="116" x14ac:dyDescent="0.35">
       <c r="A92" s="9">
         <v>91</v>
       </c>
@@ -8152,13 +8088,13 @@
         <v>48</v>
       </c>
       <c r="D92" s="9" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
       <c r="E92" s="9" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93" s="9">
         <v>92</v>
       </c>
@@ -8169,13 +8105,13 @@
         <v>49</v>
       </c>
       <c r="D93" s="9" t="s">
-        <v>600</v>
+        <v>583</v>
       </c>
       <c r="E93" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>93</v>
       </c>
@@ -8186,13 +8122,13 @@
         <v>50</v>
       </c>
       <c r="D94" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
       <c r="E94" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>94</v>
       </c>
@@ -8203,13 +8139,13 @@
         <v>51</v>
       </c>
       <c r="D95" t="s">
-        <v>489</v>
+        <v>474</v>
       </c>
       <c r="E95" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>95</v>
       </c>
@@ -8220,13 +8156,13 @@
         <v>47</v>
       </c>
       <c r="D96" t="s">
-        <v>608</v>
+        <v>591</v>
       </c>
       <c r="E96" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>96</v>
       </c>
@@ -8237,13 +8173,13 @@
         <v>50</v>
       </c>
       <c r="D97" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
       <c r="E97" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>97</v>
       </c>
@@ -8254,13 +8190,13 @@
         <v>48</v>
       </c>
       <c r="D98" t="s">
-        <v>608</v>
+        <v>591</v>
       </c>
       <c r="E98" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>98</v>
       </c>
@@ -8271,13 +8207,13 @@
         <v>51</v>
       </c>
       <c r="D99" t="s">
-        <v>608</v>
+        <v>591</v>
       </c>
       <c r="E99" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>99</v>
       </c>
@@ -8288,13 +8224,13 @@
         <v>50</v>
       </c>
       <c r="D100" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
       <c r="E100" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>100</v>
       </c>
@@ -8305,13 +8241,13 @@
         <v>51</v>
       </c>
       <c r="D101" t="s">
-        <v>489</v>
+        <v>474</v>
       </c>
       <c r="E101" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>101</v>
       </c>
@@ -8322,13 +8258,13 @@
         <v>51</v>
       </c>
       <c r="D102" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
       <c r="E102" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>102</v>
       </c>
@@ -8339,13 +8275,13 @@
         <v>51</v>
       </c>
       <c r="D103" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
       <c r="E103" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>103</v>
       </c>
@@ -8356,13 +8292,13 @@
         <v>53</v>
       </c>
       <c r="D104" t="s">
-        <v>489</v>
+        <v>474</v>
       </c>
       <c r="E104" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>104</v>
       </c>
@@ -8373,13 +8309,13 @@
         <v>54</v>
       </c>
       <c r="D105" t="s">
-        <v>608</v>
+        <v>591</v>
       </c>
       <c r="E105" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>105</v>
       </c>
@@ -8390,13 +8326,13 @@
         <v>55</v>
       </c>
       <c r="D106" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
       <c r="E106" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>106</v>
       </c>
@@ -8407,13 +8343,13 @@
         <v>56</v>
       </c>
       <c r="D107" t="s">
-        <v>781</v>
+        <v>764</v>
       </c>
       <c r="E107" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>107</v>
       </c>
@@ -8424,13 +8360,13 @@
         <v>57</v>
       </c>
       <c r="D108" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
       <c r="E108" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>108</v>
       </c>
@@ -8441,13 +8377,13 @@
         <v>58</v>
       </c>
       <c r="D109" t="s">
-        <v>489</v>
+        <v>474</v>
       </c>
       <c r="E109" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>109</v>
       </c>
@@ -8458,13 +8394,13 @@
         <v>54</v>
       </c>
       <c r="D110" t="s">
-        <v>608</v>
+        <v>591</v>
       </c>
       <c r="E110" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>110</v>
       </c>
@@ -8475,13 +8411,13 @@
         <v>70</v>
       </c>
       <c r="D111" t="s">
-        <v>489</v>
+        <v>474</v>
       </c>
       <c r="E111" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>111</v>
       </c>
@@ -8492,13 +8428,13 @@
         <v>70</v>
       </c>
       <c r="D112" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
       <c r="E112" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>112</v>
       </c>
@@ -8509,13 +8445,13 @@
         <v>56</v>
       </c>
       <c r="D113" t="s">
-        <v>781</v>
+        <v>764</v>
       </c>
       <c r="E113" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>113</v>
       </c>
@@ -8526,13 +8462,13 @@
         <v>58</v>
       </c>
       <c r="D114" t="s">
-        <v>489</v>
+        <v>474</v>
       </c>
       <c r="E114" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>114</v>
       </c>
@@ -8543,13 +8479,13 @@
         <v>58</v>
       </c>
       <c r="D115" t="s">
-        <v>608</v>
+        <v>591</v>
       </c>
       <c r="E115" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>115</v>
       </c>
@@ -8560,13 +8496,13 @@
         <v>58</v>
       </c>
       <c r="D116" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
       <c r="E116" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>116</v>
       </c>
@@ -8577,13 +8513,13 @@
         <v>60</v>
       </c>
       <c r="D117" t="s">
-        <v>489</v>
+        <v>474</v>
       </c>
       <c r="E117" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>117</v>
       </c>
@@ -8594,13 +8530,13 @@
         <v>76</v>
       </c>
       <c r="D118" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
       <c r="E118" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>118</v>
       </c>
@@ -8611,13 +8547,13 @@
         <v>66</v>
       </c>
       <c r="D119" t="s">
-        <v>608</v>
+        <v>591</v>
       </c>
       <c r="E119" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>119</v>
       </c>
@@ -8628,13 +8564,13 @@
         <v>62</v>
       </c>
       <c r="D120" t="s">
-        <v>600</v>
+        <v>583</v>
       </c>
       <c r="E120" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>120</v>
       </c>
@@ -8645,13 +8581,13 @@
         <v>74</v>
       </c>
       <c r="D121" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
       <c r="E121" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>121</v>
       </c>
@@ -8662,13 +8598,13 @@
         <v>84</v>
       </c>
       <c r="D122" t="s">
-        <v>600</v>
+        <v>583</v>
       </c>
       <c r="E122" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>122</v>
       </c>
@@ -8679,13 +8615,13 @@
         <v>85</v>
       </c>
       <c r="D123" t="s">
-        <v>608</v>
+        <v>591</v>
       </c>
       <c r="E123" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>123</v>
       </c>
@@ -8696,13 +8632,13 @@
         <v>26</v>
       </c>
       <c r="D124" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
       <c r="E124" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>124</v>
       </c>
@@ -8713,13 +8649,13 @@
         <v>22</v>
       </c>
       <c r="D125" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
       <c r="E125" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>125</v>
       </c>
@@ -8730,13 +8666,13 @@
         <v>73</v>
       </c>
       <c r="D126" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
       <c r="E126" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>126</v>
       </c>
@@ -8747,13 +8683,13 @@
         <v>16</v>
       </c>
       <c r="D127" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
       <c r="E127" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>127</v>
       </c>
@@ -8764,13 +8700,13 @@
         <v>33</v>
       </c>
       <c r="D128" t="s">
-        <v>608</v>
+        <v>591</v>
       </c>
       <c r="E128" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>128</v>
       </c>
@@ -8781,13 +8717,13 @@
         <v>67</v>
       </c>
       <c r="D129" t="s">
-        <v>489</v>
+        <v>474</v>
       </c>
       <c r="E129" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>129</v>
       </c>
@@ -8798,13 +8734,13 @@
         <v>76</v>
       </c>
       <c r="D130" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
       <c r="E130" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>130</v>
       </c>
@@ -8815,13 +8751,13 @@
         <v>80</v>
       </c>
       <c r="D131" t="s">
-        <v>608</v>
+        <v>591</v>
       </c>
       <c r="E131" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>131</v>
       </c>
@@ -8832,13 +8768,13 @@
         <v>74</v>
       </c>
       <c r="D132" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
       <c r="E132" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>132</v>
       </c>
@@ -8849,13 +8785,13 @@
         <v>69</v>
       </c>
       <c r="D133" t="s">
-        <v>608</v>
+        <v>591</v>
       </c>
       <c r="E133" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>133</v>
       </c>
@@ -8866,13 +8802,13 @@
         <v>86</v>
       </c>
       <c r="D134" t="s">
-        <v>489</v>
+        <v>474</v>
       </c>
       <c r="E134" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>134</v>
       </c>
@@ -8883,13 +8819,13 @@
         <v>55</v>
       </c>
       <c r="D135" t="s">
-        <v>600</v>
+        <v>583</v>
       </c>
       <c r="E135" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>135</v>
       </c>
@@ -8900,13 +8836,13 @@
         <v>58</v>
       </c>
       <c r="D136" t="s">
-        <v>489</v>
+        <v>474</v>
       </c>
       <c r="E136" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>136</v>
       </c>
@@ -8917,13 +8853,13 @@
         <v>73</v>
       </c>
       <c r="D137" t="s">
-        <v>489</v>
+        <v>474</v>
       </c>
       <c r="E137" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>137</v>
       </c>
@@ -8934,13 +8870,13 @@
         <v>96</v>
       </c>
       <c r="D138" t="s">
-        <v>608</v>
+        <v>591</v>
       </c>
       <c r="E138" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>138</v>
       </c>
@@ -8951,13 +8887,13 @@
         <v>97</v>
       </c>
       <c r="D139" t="s">
-        <v>608</v>
+        <v>591</v>
       </c>
       <c r="E139" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>139</v>
       </c>
@@ -8968,13 +8904,13 @@
         <v>63</v>
       </c>
       <c r="D140" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
       <c r="E140" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>140</v>
       </c>
@@ -8985,13 +8921,13 @@
         <v>93</v>
       </c>
       <c r="D141" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
       <c r="E141" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>141</v>
       </c>
@@ -9002,13 +8938,13 @@
         <v>67</v>
       </c>
       <c r="D142" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
       <c r="E142" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>142</v>
       </c>
@@ -9019,13 +8955,13 @@
         <v>28</v>
       </c>
       <c r="D143" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
       <c r="E143" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A144">
         <v>143</v>
       </c>
@@ -9036,13 +8972,13 @@
         <v>86</v>
       </c>
       <c r="D144" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
       <c r="E144" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A145">
         <v>144</v>
       </c>
@@ -9053,13 +8989,13 @@
         <v>78</v>
       </c>
       <c r="D145" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
       <c r="E145" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>145</v>
       </c>
@@ -9070,13 +9006,13 @@
         <v>79</v>
       </c>
       <c r="D146" t="s">
-        <v>489</v>
+        <v>474</v>
       </c>
       <c r="E146" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>146</v>
       </c>
@@ -9087,13 +9023,13 @@
         <v>52</v>
       </c>
       <c r="D147" t="s">
-        <v>596</v>
+        <v>579</v>
       </c>
       <c r="E147" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A148">
         <v>147</v>
       </c>
@@ -9104,13 +9040,13 @@
         <v>66</v>
       </c>
       <c r="D148" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
       <c r="E148" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A149">
         <v>148</v>
       </c>
@@ -9121,13 +9057,13 @@
         <v>82</v>
       </c>
       <c r="D149" t="s">
-        <v>608</v>
+        <v>591</v>
       </c>
       <c r="E149" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A150">
         <v>149</v>
       </c>
@@ -9138,13 +9074,13 @@
         <v>63</v>
       </c>
       <c r="D150" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
       <c r="E150" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A151">
         <v>150</v>
       </c>
@@ -9155,13 +9091,13 @@
         <v>84</v>
       </c>
       <c r="D151" t="s">
-        <v>608</v>
+        <v>591</v>
       </c>
       <c r="E151" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A152">
         <v>151</v>
       </c>
@@ -9172,13 +9108,13 @@
         <v>85</v>
       </c>
       <c r="D152" t="s">
-        <v>608</v>
+        <v>591</v>
       </c>
       <c r="E152" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A153">
         <v>152</v>
       </c>
@@ -9189,13 +9125,13 @@
         <v>86</v>
       </c>
       <c r="D153" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
       <c r="E153" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A154">
         <v>153</v>
       </c>
@@ -9206,13 +9142,13 @@
         <v>86</v>
       </c>
       <c r="D154" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
       <c r="E154" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A155">
         <v>154</v>
       </c>
@@ -9223,13 +9159,13 @@
         <v>87</v>
       </c>
       <c r="D155" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
       <c r="E155" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A156">
         <v>155</v>
       </c>
@@ -9240,13 +9176,13 @@
         <v>96</v>
       </c>
       <c r="D156" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
       <c r="E156" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A157">
         <v>156</v>
       </c>
@@ -9257,13 +9193,13 @@
         <v>97</v>
       </c>
       <c r="D157" t="s">
-        <v>608</v>
+        <v>591</v>
       </c>
       <c r="E157" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A158">
         <v>157</v>
       </c>
@@ -9274,13 +9210,13 @@
         <v>87</v>
       </c>
       <c r="D158" t="s">
-        <v>489</v>
+        <v>474</v>
       </c>
       <c r="E158" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A159">
         <v>158</v>
       </c>
@@ -9291,13 +9227,13 @@
         <v>88</v>
       </c>
       <c r="D159" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
       <c r="E159" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A160">
         <v>159</v>
       </c>
@@ -9308,13 +9244,13 @@
         <v>92</v>
       </c>
       <c r="D160" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
       <c r="E160" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A161">
         <v>160</v>
       </c>
@@ -9325,13 +9261,13 @@
         <v>90</v>
       </c>
       <c r="D161" t="s">
-        <v>489</v>
+        <v>474</v>
       </c>
       <c r="E161" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A162">
         <v>161</v>
       </c>
@@ -9342,13 +9278,13 @@
         <v>91</v>
       </c>
       <c r="D162" t="s">
-        <v>608</v>
+        <v>591</v>
       </c>
       <c r="E162" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A163">
         <v>162</v>
       </c>
@@ -9359,13 +9295,13 @@
         <v>92</v>
       </c>
       <c r="D163" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
       <c r="E163" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A164">
         <v>163</v>
       </c>
@@ -9376,13 +9312,13 @@
         <v>92</v>
       </c>
       <c r="D164" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
       <c r="E164" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A165">
         <v>164</v>
       </c>
@@ -9393,13 +9329,13 @@
         <v>94</v>
       </c>
       <c r="D165" t="s">
-        <v>600</v>
+        <v>583</v>
       </c>
       <c r="E165" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A166">
         <v>165</v>
       </c>
@@ -9410,13 +9346,13 @@
         <v>94</v>
       </c>
       <c r="D166" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
       <c r="E166" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A167">
         <v>166</v>
       </c>
@@ -9427,13 +9363,13 @@
         <v>92</v>
       </c>
       <c r="D167" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
       <c r="E167" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A168">
         <v>167</v>
       </c>
@@ -9444,13 +9380,13 @@
         <v>52</v>
       </c>
       <c r="D168" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
       <c r="E168" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A169">
         <v>168</v>
       </c>
@@ -9461,13 +9397,13 @@
         <v>53</v>
       </c>
       <c r="D169" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
       <c r="E169" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A170">
         <v>169</v>
       </c>
@@ -9478,13 +9414,13 @@
         <v>96</v>
       </c>
       <c r="D170" t="s">
-        <v>489</v>
+        <v>474</v>
       </c>
       <c r="E170" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A171">
         <v>170</v>
       </c>
@@ -9495,13 +9431,13 @@
         <v>97</v>
       </c>
       <c r="D171" t="s">
-        <v>608</v>
+        <v>591</v>
       </c>
       <c r="E171" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A172">
         <v>171</v>
       </c>
@@ -9512,13 +9448,13 @@
         <v>97</v>
       </c>
       <c r="D172" t="s">
-        <v>608</v>
+        <v>591</v>
       </c>
       <c r="E172" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A173">
         <v>172</v>
       </c>
@@ -9529,13 +9465,13 @@
         <v>85</v>
       </c>
       <c r="D173" t="s">
-        <v>608</v>
+        <v>591</v>
       </c>
       <c r="E173" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A174">
         <v>173</v>
       </c>
@@ -9546,13 +9482,13 @@
         <v>70</v>
       </c>
       <c r="D174" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
       <c r="E174" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A175">
         <v>174</v>
       </c>
@@ -9563,13 +9499,13 @@
         <v>99</v>
       </c>
       <c r="D175" t="s">
-        <v>489</v>
+        <v>474</v>
       </c>
       <c r="E175" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A176">
         <v>175</v>
       </c>
@@ -9580,13 +9516,13 @@
         <v>73</v>
       </c>
       <c r="D176" t="s">
-        <v>489</v>
+        <v>474</v>
       </c>
       <c r="E176" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A177">
         <v>176</v>
       </c>
@@ -9597,13 +9533,13 @@
         <v>50</v>
       </c>
       <c r="D177" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
       <c r="E177" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A178">
         <v>177</v>
       </c>
@@ -9614,13 +9550,13 @@
         <v>63</v>
       </c>
       <c r="D178" t="s">
-        <v>608</v>
+        <v>591</v>
       </c>
       <c r="E178" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A179">
         <v>178</v>
       </c>
@@ -9631,13 +9567,13 @@
         <v>33</v>
       </c>
       <c r="D179" t="s">
-        <v>600</v>
+        <v>583</v>
       </c>
       <c r="E179" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A180">
         <v>179</v>
       </c>
@@ -9648,13 +9584,13 @@
         <v>63</v>
       </c>
       <c r="D180" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
       <c r="E180" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A181">
         <v>180</v>
       </c>
@@ -9665,13 +9601,13 @@
         <v>61</v>
       </c>
       <c r="D181" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
       <c r="E181" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A182">
         <v>181</v>
       </c>
@@ -9682,13 +9618,13 @@
         <v>82</v>
       </c>
       <c r="D182" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
       <c r="E182" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A183">
         <v>182</v>
       </c>
@@ -9699,13 +9635,13 @@
         <v>59</v>
       </c>
       <c r="D183" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
       <c r="E183" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A184">
         <v>183</v>
       </c>
@@ -9716,13 +9652,13 @@
         <v>63</v>
       </c>
       <c r="D184" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
       <c r="E184" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A185">
         <v>184</v>
       </c>
@@ -9733,13 +9669,13 @@
         <v>79</v>
       </c>
       <c r="D185" t="s">
-        <v>781</v>
+        <v>764</v>
       </c>
       <c r="E185" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A186">
         <v>185</v>
       </c>
@@ -9750,13 +9686,13 @@
         <v>56</v>
       </c>
       <c r="D186" t="s">
-        <v>608</v>
+        <v>591</v>
       </c>
       <c r="E186" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A187">
         <v>186</v>
       </c>
@@ -9767,13 +9703,13 @@
         <v>70</v>
       </c>
       <c r="D187" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
       <c r="E187" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A188">
         <v>187</v>
       </c>
@@ -9784,13 +9720,13 @@
         <v>16</v>
       </c>
       <c r="D188" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
       <c r="E188" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A189">
         <v>188</v>
       </c>
@@ -9801,13 +9737,13 @@
         <v>83</v>
       </c>
       <c r="D189" t="s">
-        <v>608</v>
+        <v>591</v>
       </c>
       <c r="E189" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A190">
         <v>189</v>
       </c>
@@ -9818,13 +9754,13 @@
         <v>95</v>
       </c>
       <c r="D190" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
       <c r="E190" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A191">
         <v>190</v>
       </c>
@@ -9835,13 +9771,13 @@
         <v>75</v>
       </c>
       <c r="D191" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
       <c r="E191" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A192">
         <v>191</v>
       </c>
@@ -9852,13 +9788,13 @@
         <v>85</v>
       </c>
       <c r="D192" t="s">
-        <v>608</v>
+        <v>591</v>
       </c>
       <c r="E192" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A193">
         <v>192</v>
       </c>
@@ -9869,13 +9805,13 @@
         <v>82</v>
       </c>
       <c r="D193" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
       <c r="E193" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A194">
         <v>193</v>
       </c>
@@ -9886,13 +9822,13 @@
         <v>90</v>
       </c>
       <c r="D194" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
       <c r="E194" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A195">
         <v>194</v>
       </c>
@@ -9903,13 +9839,13 @@
         <v>95</v>
       </c>
       <c r="D195" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
       <c r="E195" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A196">
         <v>195</v>
       </c>
@@ -9920,13 +9856,13 @@
         <v>50</v>
       </c>
       <c r="D196" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
       <c r="E196" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A197">
         <v>196</v>
       </c>
@@ -9937,13 +9873,13 @@
         <v>95</v>
       </c>
       <c r="D197" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
       <c r="E197" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A198">
         <v>197</v>
       </c>
@@ -9954,13 +9890,13 @@
         <v>95</v>
       </c>
       <c r="D198" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
       <c r="E198" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A199">
         <v>198</v>
       </c>
@@ -9971,13 +9907,13 @@
         <v>95</v>
       </c>
       <c r="D199" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
       <c r="E199" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A200">
         <v>199</v>
       </c>
@@ -9988,13 +9924,13 @@
         <v>61</v>
       </c>
       <c r="D200" t="s">
-        <v>600</v>
+        <v>583</v>
       </c>
       <c r="E200" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A201">
         <v>200</v>
       </c>
@@ -10005,10 +9941,10 @@
         <v>99</v>
       </c>
       <c r="D201" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
       <c r="E201" t="s">
-        <v>798</v>
+        <v>781</v>
       </c>
     </row>
   </sheetData>

--- a/modulo3.xlsx
+++ b/modulo3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NievesFonseca\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62DDC5AA-686C-4837-AE85-6118F9A4CA6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{010F3933-D4C8-4D1B-A886-0648E66C66CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{86F0F3AD-BC5F-4CA2-B410-DB00E041E63B}"/>
   </bookViews>
@@ -2953,8 +2953,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DF036EE-C599-40BA-A51B-A65269641301}">
   <dimension ref="A1:K99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
-      <selection activeCell="I100" sqref="I100"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="J49" sqref="J49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
